--- a/data/rawcitydata.xlsx
+++ b/data/rawcitydata.xlsx
@@ -3669,12 +3669,12 @@
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.000000000000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000000_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3791,21 +3791,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3813,7 +3798,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3827,9 +3836,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3837,9 +3845,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3859,47 +3875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3914,14 +3892,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3936,13 +3936,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3954,13 +4020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3972,13 +4044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3990,25 +4080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4020,7 +4098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4032,91 +4110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4139,17 +4139,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4164,16 +4158,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4193,13 +4187,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4221,169 +4219,171 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4393,9 +4393,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4408,22 +4405,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4436,9 +4424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4475,9 +4460,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4872,7 +4854,7 @@
   <dimension ref="A1:J394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -4885,8 +4867,9 @@
     <col min="7" max="7" width="15.2053571428571" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.0625" style="7" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.8392857142857" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="10" max="10" width="18.8392857142857" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7410714285714" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4917,7 +4900,7 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4940,16 +4923,16 @@
       <c r="F2" s="5">
         <v>34.619702</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>7056699</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>5128.4</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="18">
         <v>6519.94391432856</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="4">
         <f>VLOOKUP(D2,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>49273.5045</v>
       </c>
@@ -4973,16 +4956,16 @@
       <c r="F3" s="5">
         <v>34.773196</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>2034872</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>1450.71</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="18">
         <v>6538.85337012863</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <f>VLOOKUP(D3,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9334.8623</v>
       </c>
@@ -5006,16 +4989,16 @@
       <c r="F4" s="5">
         <v>33.58038</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>2367490</v>
       </c>
       <c r="H4" s="7">
         <v>1573.9</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>6974.19251325664</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="4">
         <f>VLOOKUP(D4,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18086.374</v>
       </c>
@@ -5039,16 +5022,16 @@
       <c r="F5" s="5">
         <v>34.03732</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>4379998</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>3449.2</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="18">
         <v>6649.42421051475</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="4">
         <f>VLOOKUP(D5,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17700.5648</v>
       </c>
@@ -5072,16 +5055,16 @@
       <c r="F6" s="5">
         <v>32.990218</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>9713112</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>3925.86</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="18">
         <v>7500.27524008678</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="4">
         <f>VLOOKUP(D6,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>27039.15375</v>
       </c>
@@ -5105,16 +5088,16 @@
       <c r="F7" s="5">
         <v>32.148624</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>6234401</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>2805.68</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="18">
         <v>8373.7115193764</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="4">
         <f>VLOOKUP(D7,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16123.60555</v>
       </c>
@@ -5138,16 +5121,16 @@
       <c r="F8" s="5">
         <v>35.069057</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>727265</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>703.16</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="18">
         <v>6201.43576624181</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="4">
         <f>VLOOKUP(D8,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4692.7666</v>
       </c>
@@ -5171,16 +5154,16 @@
       <c r="F9" s="5">
         <v>35.762731</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>3772088</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>1649.99</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="18">
         <v>6599.91533724358</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="4">
         <f>VLOOKUP(D9,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>21785.1192</v>
       </c>
@@ -5204,16 +5187,16 @@
       <c r="F10" s="5">
         <v>33.014038</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>7008427</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>2859.27</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="18">
         <v>7344.43338299924</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="4">
         <f>VLOOKUP(D10,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>36005.74965</v>
       </c>
@@ -5237,16 +5220,16 @@
       <c r="F11" s="5">
         <v>35.748329</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>1565973</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>980.97</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="18">
         <v>6044.89807588062</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="4">
         <f>VLOOKUP(D11,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>10126.77895</v>
       </c>
@@ -5270,16 +5253,16 @@
       <c r="F12" s="5">
         <v>34.746303</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>12600574</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>12003</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="18">
         <v>6319.62277806877</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="4">
         <f>VLOOKUP(D12,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>128651.0538</v>
       </c>
@@ -5303,16 +5286,16 @@
       <c r="F13" s="5">
         <v>35.215726</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>3521078</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>2123.6</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="18">
         <v>6356.63895136364</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="4">
         <f>VLOOKUP(D13,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18310.10845</v>
       </c>
@@ -5336,16 +5319,16 @@
       <c r="F14" s="5">
         <v>34.798083</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>4824016</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>2371.83</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="18">
         <v>5840.92977952935</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="4">
         <f>VLOOKUP(D14,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>25935.86055</v>
       </c>
@@ -5369,16 +5352,16 @@
       <c r="F15" s="5">
         <v>36.098779</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>5477614</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>2300.5</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="18">
         <v>6204.89834064278</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="4">
         <f>VLOOKUP(D15,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>28937.72445</v>
       </c>
@@ -5402,16 +5385,16 @@
       <c r="F16" s="5">
         <v>35.303589</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>6251929</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>3014.51</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="18">
         <v>5218.29065453297</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="4">
         <f>VLOOKUP(D16,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>29487.95575</v>
       </c>
@@ -5435,16 +5418,16 @@
       <c r="F17" s="5">
         <v>34.415165</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>7816831</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>2925.33</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="18">
         <v>6766.57050871964</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="4">
         <f>VLOOKUP(D17,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>32435.9106</v>
       </c>
@@ -5468,16 +5451,16 @@
       <c r="F18" s="5">
         <v>33.766554</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <v>4987137</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>2455.84</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="18">
         <v>6762.52884249935</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="4">
         <f>VLOOKUP(D18,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20469.60255</v>
       </c>
@@ -5501,16 +5484,16 @@
       <c r="F19" s="5">
         <v>33.634652</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>9026015</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>3267.19</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="18">
         <v>6553.01380632948</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="4">
         <f>VLOOKUP(D19,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26770.3597</v>
       </c>
@@ -5534,16 +5517,16 @@
       <c r="F20" s="5">
         <v>23.354152</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>5502031</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>2730.58</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="18">
         <v>14981.7978593267</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="4">
         <f>VLOOKUP(D20,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>71718.6275</v>
       </c>
@@ -5570,13 +5553,13 @@
       <c r="G21" s="6">
         <v>9498863</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>10816.47</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="18">
         <v>18897.1387395353</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="4">
         <f>VLOOKUP(D21,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>143092.9767</v>
       </c>
@@ -5600,16 +5583,16 @@
       <c r="F22" s="5">
         <v>23.047747</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>4113594</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="15">
         <v>2311.65</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="18">
         <v>17534.3040721464</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="4">
         <f>VLOOKUP(D22,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>34663.01175</v>
       </c>
@@ -5633,16 +5616,16 @@
       <c r="F23" s="5">
         <v>23.112368</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>6042852</v>
       </c>
       <c r="H23" s="7">
         <v>4221.79</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="18">
         <v>20403.1268286749</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="4">
         <f>VLOOKUP(D23,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>108053.1443</v>
       </c>
@@ -5669,13 +5652,13 @@
       <c r="G24" s="6">
         <v>17560061</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>27670.24</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="18">
         <v>20338.4888874657</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="4">
         <f>VLOOKUP(D24,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>197931.2884</v>
       </c>
@@ -5705,10 +5688,10 @@
       <c r="H25" s="7">
         <v>3481.94</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="18">
         <v>19921.6695509245</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="4">
         <f>VLOOKUP(D25,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>60244.7248</v>
       </c>
@@ -5732,16 +5715,16 @@
       <c r="F26" s="5">
         <v>21.270108</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <v>6981236</v>
       </c>
       <c r="H26" s="7">
         <v>3100.22</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="18">
         <v>15371.6622518748</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="4">
         <f>VLOOKUP(D26,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>45469.7563</v>
       </c>
@@ -5765,16 +5748,16 @@
       <c r="F27" s="5">
         <v>22.578948</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>4798090</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>3200.95</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="18">
         <v>20358.3013775019</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="4">
         <f>VLOOKUP(D27,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>59800.301</v>
       </c>
@@ -5798,16 +5781,16 @@
       <c r="F28" s="5">
         <v>21.856853</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <v>2602959</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>1360.44</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="18">
         <v>22691.0317930103</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="4">
         <f>VLOOKUP(D28,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23093.9099</v>
       </c>
@@ -5831,16 +5814,16 @@
       <c r="F29" s="5">
         <v>21.662728</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <v>6174050</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>3279.31</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="18">
         <v>15930.504812202</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="4">
         <f>VLOOKUP(D29,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>30160.14995</v>
       </c>
@@ -5864,16 +5847,16 @@
       <c r="F30" s="5">
         <v>24.810977</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>2855131</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>1353.49</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="18">
         <v>17984.3098994552</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="4">
         <f>VLOOKUP(D30,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19474.4911</v>
       </c>
@@ -5897,16 +5880,16 @@
       <c r="F31" s="5">
         <v>22.787204</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>2672819</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>1123.81</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="18">
         <v>17655.9745172288</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="4">
         <f>VLOOKUP(D31,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>30811.233</v>
       </c>
@@ -5930,16 +5913,16 @@
       <c r="F32" s="5">
         <v>23.550968</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>5577814</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>2102.14</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="18">
         <v>17088.3377971712</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="4">
         <f>VLOOKUP(D32,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>53409.60565</v>
       </c>
@@ -5963,16 +5946,16 @@
       <c r="F33" s="5">
         <v>22.915163</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>2383350</v>
       </c>
       <c r="H33" s="7">
         <v>1002.18</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="18">
         <v>17054.8561554621</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="4">
         <f>VLOOKUP(D33,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11662.0033</v>
       </c>
@@ -5996,16 +5979,16 @@
       <c r="F34" s="5">
         <v>23.744276</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <v>2837686</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>1102.74</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="18">
         <v>18948.7034558863</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="4">
         <f>VLOOKUP(D34,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19342.03715</v>
       </c>
@@ -6029,16 +6012,16 @@
       <c r="F35" s="5">
         <v>23.657662</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="13">
         <v>2568387</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>1096.98</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="18">
         <v>15610.4035447778</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="4">
         <f>VLOOKUP(D35,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>29918.31925</v>
       </c>
@@ -6062,16 +6045,16 @@
       <c r="F36" s="5">
         <v>23.682064</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>3969473</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>1777.2</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="18">
         <v>18496.2374465231</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="4">
         <f>VLOOKUP(D36,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>32816.75035</v>
       </c>
@@ -6098,13 +6081,13 @@
       <c r="G37" s="6">
         <v>10466625</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>9650.19</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="18">
         <v>20412.9626639241</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="4">
         <f>VLOOKUP(D37,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>163963.2506</v>
       </c>
@@ -6131,13 +6114,13 @@
       <c r="G38" s="6">
         <v>18676605</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>25019.11</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="18">
         <v>21402.3228175865</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="4">
         <f>VLOOKUP(D38,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>256433.2788</v>
       </c>
@@ -6161,16 +6144,16 @@
       <c r="F39" s="5">
         <v>24.288832</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="12">
         <v>3873239</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>1207.98</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="18">
         <v>16750.7758534923</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="4">
         <f>VLOOKUP(D39,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23001.24985</v>
       </c>
@@ -6194,16 +6177,16 @@
       <c r="F40" s="5">
         <v>22.517024</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="13">
         <v>4418060</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>3151.59</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="18">
         <v>19550.4119647688</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="4">
         <f>VLOOKUP(D40,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>74366.9591</v>
       </c>
@@ -6227,16 +6210,16 @@
       <c r="F41" s="5">
         <v>39.655048</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>556621</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="15">
         <v>563.14</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="18">
         <v>3358.38226371716</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="4">
         <f>VLOOKUP(D41,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6927.1677</v>
       </c>
@@ -6263,13 +6246,13 @@
       <c r="G42" s="6">
         <v>2709378</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>2787.4</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="18">
         <v>4253.43240019651</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="4">
         <f>VLOOKUP(D42,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>31697.5928</v>
       </c>
@@ -6293,16 +6276,16 @@
       <c r="F43" s="5">
         <v>40.742987</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>1538715</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>874</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="18">
         <v>4174.23423527992</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="4">
         <f>VLOOKUP(D43,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4367.9186</v>
       </c>
@@ -6326,16 +6309,16 @@
       <c r="F44" s="5">
         <v>49.166536</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <v>2242875</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>1172.2</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="18">
         <v>5157.91573831364</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="4">
         <f>VLOOKUP(D44,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12212.16235</v>
       </c>
@@ -6359,16 +6342,16 @@
       <c r="F45" s="5">
         <v>43.653566</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>2873168</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>1276.64</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="18">
         <v>5583.35579342292</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="4">
         <f>VLOOKUP(D45,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12738.9376</v>
       </c>
@@ -6392,16 +6375,16 @@
       <c r="F46" s="5">
         <v>38.851554</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="13">
         <v>262361</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>304.8</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="18">
         <v>5634.5897705073</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="4">
         <f>VLOOKUP(D46,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8331.40145</v>
       </c>
@@ -6428,13 +6411,13 @@
       <c r="G47" s="6">
         <v>1416929</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>547.92</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="18">
         <v>5886.00401456596</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="4">
         <f>VLOOKUP(D47,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5025.85235</v>
       </c>
@@ -6458,16 +6441,16 @@
       <c r="F48" s="5">
         <v>43.933212</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="6">
         <v>1107075</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>839.84</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="18">
         <v>4844.73106496418</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="4">
         <f>VLOOKUP(D48,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12884.499</v>
       </c>
@@ -6491,16 +6474,16 @@
       <c r="F49" s="5">
         <v>40.842127</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>3446100</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>2800.7</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="18">
         <v>4774.56316058928</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="4">
         <f>VLOOKUP(D49,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>49792.06575</v>
       </c>
@@ -6524,16 +6507,16 @@
       <c r="F50" s="5">
         <v>40.994526</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <v>1706328</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>826.9</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="18">
         <v>5304.48671714886</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="4">
         <f>VLOOKUP(D50,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13015.3264</v>
       </c>
@@ -6557,16 +6540,16 @@
       <c r="F51" s="5">
         <v>39.608744</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>2153638</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>3533.66</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="18">
         <v>4945.03075491104</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="4">
         <f>VLOOKUP(D51,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>47234.4272</v>
       </c>
@@ -6590,16 +6573,16 @@
       <c r="F52" s="5">
         <v>42.256876</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <v>4035967</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>1763.6</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="18">
         <v>4937.48964266085</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="4">
         <f>VLOOKUP(D52,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26583.7003</v>
       </c>
@@ -6623,16 +6606,16 @@
       <c r="F53" s="5">
         <v>45.771178</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <v>689611</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>206.4</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="18">
         <v>7749.52082320956</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="4">
         <f>VLOOKUP(D53,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3345.05995</v>
       </c>
@@ -6656,16 +6639,16 @@
       <c r="F54" s="5">
         <v>50.41129</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="13">
         <v>331276</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>141.9</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="18">
         <v>5546.29954081078</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="4">
         <f>VLOOKUP(D54,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>210.4186</v>
       </c>
@@ -6689,16 +6672,16 @@
       <c r="F55" s="5">
         <v>47.350659</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="16">
         <v>891271</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="17">
         <v>340.2</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="18">
         <v>8244.98575728362</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="4">
         <f>VLOOKUP(D55,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2542.82555</v>
       </c>
@@ -6722,16 +6705,16 @@
       <c r="F56" s="5">
         <v>47.728332</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>878881</v>
       </c>
       <c r="H56" s="7">
         <v>295.19</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="18">
         <v>8215.7140188228</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="4">
         <f>VLOOKUP(D56,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1111.7092</v>
       </c>
@@ -6755,16 +6738,16 @@
       <c r="F57" s="5">
         <v>46.654147</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>3756167</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>1150.2</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="18">
         <v>6938.94033598609</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="4">
         <f>VLOOKUP(D57,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11070.18895</v>
       </c>
@@ -6788,16 +6771,16 @@
       <c r="F58" s="5">
         <v>45.802981</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>10009854</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>5183.8</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="18">
         <v>7353.50131976647</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="4">
         <f>VLOOKUP(D58,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>73118.61375</v>
       </c>
@@ -6821,16 +6804,16 @@
       <c r="F59" s="5">
         <v>46.589498</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>2781562</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>2301.1</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="18">
         <v>5958.13029095626</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="4">
         <f>VLOOKUP(D59,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>43232.5286</v>
       </c>
@@ -6854,16 +6837,16 @@
       <c r="F60" s="5">
         <v>46.800002</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>2156505</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>811.8</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="18">
         <v>8339.11135784052</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="4">
         <f>VLOOKUP(D60,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14963.6972</v>
       </c>
@@ -6887,16 +6870,16 @@
       <c r="F61" s="5">
         <v>46.676157</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="16">
         <v>1208803</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="14">
         <v>493.9</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="18">
         <v>8365.75993549891</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="4">
         <f>VLOOKUP(D61,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3708.21855</v>
       </c>
@@ -6920,16 +6903,16 @@
       <c r="F62" s="5">
         <v>50.244887</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>1286401</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>614.4</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="18">
         <v>7357.94016482557</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="4">
         <f>VLOOKUP(D62,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4440.1046</v>
       </c>
@@ -6953,16 +6936,16 @@
       <c r="F63" s="5">
         <v>44.551486</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>2290208</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>831.7</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="18">
         <v>6798.07086944175</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="4">
         <f>VLOOKUP(D63,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14468.23965</v>
       </c>
@@ -6986,16 +6969,16 @@
       <c r="F64" s="5">
         <v>47.354892</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>4067489</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>1200.4</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="18">
         <v>6416.60202932345</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="4">
         <f>VLOOKUP(D64,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19054.921</v>
       </c>
@@ -7019,16 +7002,16 @@
       <c r="F65" s="5">
         <v>45.295087</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <v>1502060</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="19">
         <v>572.4</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="18">
         <v>7495.09474316464</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="4">
         <f>VLOOKUP(D65,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4389.82705</v>
       </c>
@@ -7052,11 +7035,10 @@
       <c r="F66" s="5">
         <v>47.326733</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="I66" s="22">
+      <c r="I66" s="18">
         <v>2954.84192294901</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="4">
         <f>VLOOKUP(D66,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>692.262</v>
       </c>
@@ -7080,10 +7062,10 @@
       <c r="F67" s="5">
         <v>41.862997</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="18">
         <v>1071.94886841329</v>
       </c>
-      <c r="J67" s="9" t="e">
+      <c r="J67" s="4" t="e">
         <f>VLOOKUP(D67,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -7107,16 +7089,16 @@
       <c r="F68" s="5">
         <v>44.906039</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="20">
         <v>488198</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="14">
         <v>377.1</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="18">
         <v>2129.51360909901</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="4">
         <f>VLOOKUP(D68,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7918.1197</v>
       </c>
@@ -7140,10 +7122,10 @@
       <c r="F69" s="5">
         <v>44.84052409</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="18">
         <v>1625.74421508269</v>
       </c>
-      <c r="J69" s="9" t="e">
+      <c r="J69" s="4" t="e">
         <f>VLOOKUP(D69,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -7167,16 +7149,16 @@
       <c r="F70" s="5">
         <v>47.844924</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="20">
         <v>668587</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="14">
         <v>334.53</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="18">
         <v>3141.25497689878</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="4">
         <f>VLOOKUP(D70,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7593.19575</v>
       </c>
@@ -7200,10 +7182,10 @@
       <c r="F71" s="5">
         <v>37.215372</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="18">
         <v>1603.19929874883</v>
       </c>
-      <c r="J71" s="9" t="e">
+      <c r="J71" s="4" t="e">
         <f>VLOOKUP(D71,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -7227,10 +7209,10 @@
       <c r="F72" s="5">
         <v>44.305368</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="18">
         <v>2823.03890003338</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="4">
         <f>VLOOKUP(D72,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7557.224</v>
       </c>
@@ -7254,10 +7236,10 @@
       <c r="F73" s="5">
         <v>43.940381</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="18">
         <v>3349.14723298376</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="4">
         <f>VLOOKUP(D73,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>146.6582</v>
       </c>
@@ -7281,16 +7263,16 @@
       <c r="F74" s="5">
         <v>37.114406</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="20">
         <v>2504718</v>
       </c>
       <c r="H74" s="7">
         <v>406.32</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="18">
         <v>2626.66242444237</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="4">
         <f>VLOOKUP(D74,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14929.87655</v>
       </c>
@@ -7314,16 +7296,16 @@
       <c r="F75" s="5">
         <v>46.745364</v>
       </c>
-      <c r="G75" s="24">
+      <c r="G75" s="20">
         <v>1138638</v>
       </c>
-      <c r="H75" s="21">
+      <c r="H75" s="17">
         <v>737.57</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="18">
         <v>2600.80719493783</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="4">
         <f>VLOOKUP(D75,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11104.30495</v>
       </c>
@@ -7347,16 +7329,16 @@
       <c r="F76" s="5">
         <v>44.011044</v>
       </c>
-      <c r="G76" s="24">
+      <c r="G76" s="20">
         <v>1613585</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H76" s="21">
         <v>1387.25</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="18">
         <v>3108.38773519382</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="4">
         <f>VLOOKUP(D76,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>31534.18675</v>
       </c>
@@ -7380,10 +7362,10 @@
       <c r="F77" s="5">
         <v>44.166489</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="18">
         <v>3014.56003650977</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="4">
         <f>VLOOKUP(D77,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3160.2368</v>
       </c>
@@ -7407,16 +7389,16 @@
       <c r="F78" s="5">
         <v>41.764115</v>
       </c>
-      <c r="G78" s="24">
+      <c r="G78" s="20">
         <v>1613979</v>
       </c>
       <c r="H78" s="7">
         <v>1106.29</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="18">
         <v>2626.72796107453</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="4">
         <f>VLOOKUP(D78,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>32030.4598</v>
       </c>
@@ -7440,10 +7422,10 @@
       <c r="F79" s="5">
         <v>40.547205</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="18">
         <v>1393.59057982992</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="4">
         <f>VLOOKUP(D79,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>977.82595</v>
       </c>
@@ -7467,16 +7449,16 @@
       <c r="F80" s="5">
         <v>43.917106</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="20">
         <v>2848393</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H80" s="14">
         <v>2338.11</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="18">
         <v>2989.88412681144</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="4">
         <f>VLOOKUP(D80,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23727.70535</v>
       </c>
@@ -7500,16 +7482,16 @@
       <c r="F81" s="5">
         <v>41.170712</v>
       </c>
-      <c r="G81" s="24">
+      <c r="G81" s="20">
         <v>2714422</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H81" s="14">
         <v>1315.05</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="18">
         <v>2400.67688211275</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="4">
         <f>VLOOKUP(D81,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>75321.459</v>
       </c>
@@ -7533,16 +7515,16 @@
       <c r="F82" s="5">
         <v>39.470492</v>
       </c>
-      <c r="G82" s="24">
+      <c r="G82" s="20">
         <v>4496377</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="14">
         <v>1130.2</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="18">
         <v>1581.19717083662</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="4">
         <f>VLOOKUP(D82,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23314.5857</v>
       </c>
@@ -7566,10 +7548,10 @@
       <c r="F83" s="5">
         <v>39.867776</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I83" s="18">
         <v>2579.28165734151</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="4">
         <f>VLOOKUP(D83,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4043.49615</v>
       </c>
@@ -7593,16 +7575,16 @@
       <c r="F84" s="5">
         <v>39.714734</v>
       </c>
-      <c r="G84" s="24">
+      <c r="G84" s="20">
         <v>622222</v>
       </c>
       <c r="H84" s="7">
         <v>169.24</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="18">
         <v>2316.57392463481</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="23">
         <v>3329.74935</v>
       </c>
     </row>
@@ -7625,16 +7607,16 @@
       <c r="F85" s="5">
         <v>42.819346</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="20">
         <v>673383</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="22">
         <v>607.91</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I85" s="18">
         <v>2813.90079717722</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="4">
         <f>VLOOKUP(D85,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13332.03355</v>
       </c>
@@ -7658,16 +7640,16 @@
       <c r="F86" s="5">
         <v>45.577712</v>
       </c>
-      <c r="G86" s="24">
+      <c r="G86" s="20">
         <v>490348</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="17">
         <v>886.9</v>
       </c>
-      <c r="I86" s="22">
+      <c r="I86" s="18">
         <v>2226.08092015529</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="4">
         <f>VLOOKUP(D86,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>35240.96345</v>
       </c>
@@ -7691,10 +7673,10 @@
       <c r="F87" s="5">
         <v>44.692894</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I87" s="18">
         <v>2453.0614478391</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="4">
         <f>VLOOKUP(D87,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>90.1146</v>
       </c>
@@ -7718,16 +7700,16 @@
       <c r="F88" s="5">
         <v>42.950736</v>
       </c>
-      <c r="G88" s="24">
+      <c r="G88" s="20">
         <v>693988</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H88" s="17">
         <v>373.41</v>
       </c>
-      <c r="I88" s="22">
+      <c r="I88" s="18">
         <v>2280.23213980863</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="4">
         <f>VLOOKUP(D88,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8743.9783</v>
       </c>
@@ -7751,16 +7733,16 @@
       <c r="F89" s="5">
         <v>43.825377</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="20">
         <v>4054369</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H89" s="14">
         <v>3337.32</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I89" s="18">
         <v>3117.06871065521</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J89" s="4">
         <f>VLOOKUP(D89,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>77580.8708</v>
       </c>
@@ -7784,16 +7766,16 @@
       <c r="F90" s="5">
         <v>32.629057</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="10">
         <v>3209004</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90" s="11">
         <v>1915.1</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I90" s="18">
         <v>8367.69933441435</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J90" s="4">
         <f>VLOOKUP(D90,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9360.83555</v>
       </c>
@@ -7817,16 +7799,16 @@
       <c r="F91" s="5">
         <v>32.010161</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="12">
         <v>5260951</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <v>4601.97</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I91" s="18">
         <v>7601.2905190491</v>
       </c>
-      <c r="J91" s="9">
+      <c r="J91" s="4">
         <f>VLOOKUP(D91,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>21048.89595</v>
       </c>
@@ -7850,16 +7832,16 @@
       <c r="F92" s="5">
         <v>30.663706</v>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="13">
         <v>1158640</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="11">
         <v>617.49</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I92" s="18">
         <v>9113.25566194181</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="4">
         <f>VLOOKUP(D92,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3252.25865</v>
       </c>
@@ -7883,16 +7865,16 @@
       <c r="F93" s="5">
         <v>30.593354</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="10">
         <v>12326518</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93" s="11">
         <v>15616.06</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="18">
         <v>9615.12583308116</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="4">
         <f>VLOOKUP(D93,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>187221.742</v>
       </c>
@@ -7916,16 +7898,16 @@
       <c r="F94" s="5">
         <v>30.401954</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="13">
         <v>886547</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="11">
         <v>765.23</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="18">
         <v>9967.21342947685</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="4">
         <f>VLOOKUP(D94,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4163.1485</v>
       </c>
@@ -7949,16 +7931,16 @@
       <c r="F95" s="5">
         <v>30.453722</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="12">
         <v>5882719</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>2169.55</v>
       </c>
-      <c r="I95" s="22">
+      <c r="I95" s="18">
         <v>10661.4969391492</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="4">
         <f>VLOOKUP(D95,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15361.6997</v>
       </c>
@@ -7982,16 +7964,16 @@
       <c r="F96" s="5">
         <v>30.69217</v>
       </c>
-      <c r="G96" s="20">
+      <c r="G96" s="16">
         <v>4017607</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="11">
         <v>4261.42</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="18">
         <v>9039.56207027689</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="4">
         <f>VLOOKUP(D96,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23933.4183</v>
       </c>
@@ -8015,16 +7997,16 @@
       <c r="F97" s="5">
         <v>30.328407</v>
       </c>
-      <c r="G97" s="17">
+      <c r="G97" s="13">
         <v>1134715</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="11">
         <v>827.91</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="18">
         <v>10236.8778436314</v>
       </c>
-      <c r="J97" s="9">
+      <c r="J97" s="4">
         <f>VLOOKUP(D97,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4609.45195</v>
       </c>
@@ -8048,16 +8030,16 @@
       <c r="F98" s="5">
         <v>31.035445</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="12">
         <v>2596927</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="11">
         <v>1906.41</v>
       </c>
-      <c r="I98" s="22">
+      <c r="I98" s="18">
         <v>8710.89667092438</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="4">
         <f>VLOOKUP(D98,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8011.66</v>
       </c>
@@ -8081,16 +8063,16 @@
       <c r="F99" s="5">
         <v>30.918311</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="12">
         <v>4270371</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="11">
         <v>2193.55</v>
       </c>
-      <c r="I99" s="22">
+      <c r="I99" s="18">
         <v>8567.36833950292</v>
       </c>
-      <c r="J99" s="9">
+      <c r="J99" s="4">
         <f>VLOOKUP(D99,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12901.3722</v>
       </c>
@@ -8114,16 +8096,16 @@
       <c r="F100" s="5">
         <v>30.272104</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="13">
         <v>3456136</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100" s="11">
         <v>1117.7</v>
       </c>
-      <c r="I100" s="22">
+      <c r="I100" s="18">
         <v>10347.7372288515</v>
       </c>
-      <c r="J100" s="9">
+      <c r="J100" s="4">
         <f>VLOOKUP(D100,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8010.69395</v>
       </c>
@@ -8147,16 +8129,16 @@
       <c r="F101" s="5">
         <v>30.336282</v>
       </c>
-      <c r="G101" s="13">
+      <c r="G101" s="12">
         <v>5231180</v>
       </c>
-      <c r="H101" s="18">
+      <c r="H101" s="15">
         <v>2369.04</v>
       </c>
-      <c r="I101" s="22">
+      <c r="I101" s="18">
         <v>10235.8244097265</v>
       </c>
-      <c r="J101" s="9">
+      <c r="J101" s="4">
         <f>VLOOKUP(D101,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19540.4969</v>
       </c>
@@ -8180,16 +8162,16 @@
       <c r="F102" s="5">
         <v>29.84135</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="12">
         <v>2658316</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102" s="11">
         <v>1524.67</v>
       </c>
-      <c r="I102" s="22">
+      <c r="I102" s="18">
         <v>11685.961086725</v>
       </c>
-      <c r="J102" s="9">
+      <c r="J102" s="4">
         <f>VLOOKUP(D102,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9161.48535</v>
       </c>
@@ -8213,16 +8195,16 @@
       <c r="F103" s="5">
         <v>31.745103</v>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="13">
         <v>66571</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="11">
         <v>30.73</v>
       </c>
-      <c r="I103" s="22">
+      <c r="I103" s="18">
         <v>8531.77556017303</v>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="4">
         <f>VLOOKUP(D103,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14.5332</v>
       </c>
@@ -8246,16 +8228,16 @@
       <c r="F104" s="5">
         <v>31.690275</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="12">
         <v>2047923</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="11">
         <v>1096.72</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="18">
         <v>7728.14107355634</v>
       </c>
-      <c r="J104" s="9">
+      <c r="J104" s="4">
         <f>VLOOKUP(D104,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3952.92965</v>
       </c>
@@ -8279,16 +8261,16 @@
       <c r="F105" s="5">
         <v>30.201082</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="10">
         <v>2469079</v>
       </c>
-      <c r="H105" s="12">
+      <c r="H105" s="11">
         <v>1641.32</v>
       </c>
-      <c r="I105" s="22">
+      <c r="I105" s="18">
         <v>11418.6605333581</v>
       </c>
-      <c r="J105" s="9">
+      <c r="J105" s="4">
         <f>VLOOKUP(D105,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13801.04755</v>
       </c>
@@ -8312,16 +8294,16 @@
       <c r="F106" s="5">
         <v>30.391461</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="12">
         <v>1079353</v>
       </c>
-      <c r="H106" s="12">
+      <c r="H106" s="11">
         <v>1005.23</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="18">
         <v>10945.8885410053</v>
       </c>
-      <c r="J106" s="9">
+      <c r="J106" s="4">
         <f>VLOOKUP(D106,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8983.00825</v>
       </c>
@@ -8345,16 +8327,16 @@
       <c r="F107" s="5">
         <v>41.677576</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="10">
         <v>9070093</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="11">
         <v>6571.6</v>
       </c>
-      <c r="I107" s="22">
+      <c r="I107" s="18">
         <v>7736.02822735837</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J107" s="4">
         <f>VLOOKUP(D107,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>118212.8905</v>
       </c>
@@ -8378,16 +8360,16 @@
       <c r="F108" s="5">
         <v>40.710974</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="10">
         <v>2434194</v>
       </c>
-      <c r="H108" s="12">
+      <c r="H108" s="11">
         <v>770.4</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="18">
         <v>5820.43285698445</v>
       </c>
-      <c r="J108" s="9">
+      <c r="J108" s="4">
         <f>VLOOKUP(D108,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14948.08225</v>
       </c>
@@ -8411,16 +8393,16 @@
       <c r="F109" s="5">
         <v>41.096114</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="10">
         <v>2703853</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="11">
         <v>1072.2</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="18">
         <v>6335.62576291021</v>
       </c>
-      <c r="J109" s="9">
+      <c r="J109" s="4">
         <f>VLOOKUP(D109,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20781.76315</v>
       </c>
@@ -8444,16 +8426,16 @@
       <c r="F110" s="5">
         <v>38.913962</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="10">
         <v>7450785</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="11">
         <v>7030.4</v>
       </c>
-      <c r="I110" s="22">
+      <c r="I110" s="18">
         <v>5289.45195230552</v>
       </c>
-      <c r="J110" s="9">
+      <c r="J110" s="4">
         <f>VLOOKUP(D110,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>86380.76865</v>
       </c>
@@ -8477,16 +8459,16 @@
       <c r="F111" s="5">
         <v>40.000646</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="10">
         <v>2188436</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="11">
         <v>779.4</v>
       </c>
-      <c r="I111" s="22">
+      <c r="I111" s="18">
         <v>7304.98987346198</v>
       </c>
-      <c r="J111" s="9">
+      <c r="J111" s="4">
         <f>VLOOKUP(D111,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11936.82375</v>
       </c>
@@ -8513,13 +8495,13 @@
       <c r="G112" s="6">
         <v>1861372</v>
       </c>
-      <c r="H112" s="12">
+      <c r="H112" s="11">
         <v>827.8</v>
       </c>
-      <c r="I112" s="22">
+      <c r="I112" s="18">
         <v>7822.54708148168</v>
       </c>
-      <c r="J112" s="9">
+      <c r="J112" s="4">
         <f>VLOOKUP(D112,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14353.26395</v>
       </c>
@@ -8543,16 +8525,16 @@
       <c r="F113" s="5">
         <v>40.71956</v>
       </c>
-      <c r="G113" s="13">
+      <c r="G113" s="12">
         <v>1389691</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="11">
         <v>1303.6</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="18">
         <v>7015.62484838842</v>
       </c>
-      <c r="J113" s="9">
+      <c r="J113" s="4">
         <f>VLOOKUP(D113,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>30172.48015</v>
       </c>
@@ -8576,16 +8558,16 @@
       <c r="F114" s="5">
         <v>42.022028</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="10">
         <v>1647280</v>
       </c>
       <c r="H114" s="7">
         <v>504.6</v>
       </c>
-      <c r="I114" s="22">
+      <c r="I114" s="18">
         <v>6496.37722093712</v>
       </c>
-      <c r="J114" s="9">
+      <c r="J114" s="4">
         <f>VLOOKUP(D114,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7666.2888</v>
       </c>
@@ -8609,16 +8591,16 @@
       <c r="F115" s="5">
         <v>42.223709</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="12">
         <v>2388294</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="11">
         <v>663.1</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="18">
         <v>8013.37943282602</v>
       </c>
-      <c r="J115" s="9">
+      <c r="J115" s="4">
         <f>VLOOKUP(D115,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6906.47095</v>
       </c>
@@ -8642,16 +8624,16 @@
       <c r="F116" s="5">
         <v>40.625027</v>
       </c>
-      <c r="G116" s="20">
+      <c r="G116" s="16">
         <v>2328582</v>
       </c>
-      <c r="H116" s="12">
+      <c r="H116" s="11">
         <v>1325.5</v>
       </c>
-      <c r="I116" s="22">
+      <c r="I116" s="18">
         <v>5814.01924571482</v>
       </c>
-      <c r="J116" s="9">
+      <c r="J116" s="4">
         <f>VLOOKUP(D116,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>31694.3129</v>
       </c>
@@ -8675,16 +8657,16 @@
       <c r="F117" s="5">
         <v>41.486834</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="10">
         <v>1326018</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="11">
         <v>810.4</v>
       </c>
-      <c r="I117" s="22">
+      <c r="I117" s="18">
         <v>7103.71019650331</v>
       </c>
-      <c r="J117" s="9">
+      <c r="J117" s="4">
         <f>VLOOKUP(D117,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11281.5311</v>
       </c>
@@ -8708,16 +8690,16 @@
       <c r="F118" s="5">
         <v>41.267396</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="12">
         <v>1604580</v>
       </c>
-      <c r="H118" s="12">
+      <c r="H118" s="11">
         <v>837.7</v>
       </c>
-      <c r="I118" s="22">
+      <c r="I118" s="18">
         <v>7057.27412657027</v>
       </c>
-      <c r="J118" s="9">
+      <c r="J118" s="4">
         <f>VLOOKUP(D118,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20336.7867</v>
       </c>
@@ -8741,16 +8723,16 @@
       <c r="F119" s="5">
         <v>41.108239</v>
       </c>
-      <c r="G119" s="20">
+      <c r="G119" s="16">
         <v>3325372</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="11">
         <v>1738.8</v>
       </c>
-      <c r="I119" s="22">
+      <c r="I119" s="18">
         <v>6824.03134678201</v>
       </c>
-      <c r="J119" s="9">
+      <c r="J119" s="4">
         <f>VLOOKUP(D119,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>27703.8367</v>
       </c>
@@ -8774,16 +8756,16 @@
       <c r="F120" s="5">
         <v>41.601855</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="10">
         <v>2872857</v>
       </c>
-      <c r="H120" s="12">
+      <c r="H120" s="11">
         <v>875.6</v>
       </c>
-      <c r="I120" s="22">
+      <c r="I120" s="18">
         <v>5142.02112917399</v>
       </c>
-      <c r="J120" s="9">
+      <c r="J120" s="4">
         <f>VLOOKUP(D120,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9393.018</v>
       </c>
@@ -8807,16 +8789,16 @@
       <c r="F121" s="5">
         <v>37.464551</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="10">
         <v>7102116</v>
       </c>
       <c r="H121" s="7">
         <v>7816.42</v>
       </c>
-      <c r="I121" s="22">
+      <c r="I121" s="18">
         <v>4625.71785313586</v>
       </c>
-      <c r="J121" s="9">
+      <c r="J121" s="4">
         <f>VLOOKUP(D121,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>64907.7157</v>
       </c>
@@ -8840,16 +8822,16 @@
       <c r="F122" s="5">
         <v>37.513315</v>
       </c>
-      <c r="G122" s="13">
+      <c r="G122" s="12">
         <v>2906548</v>
       </c>
       <c r="H122" s="7">
         <v>3017.79</v>
       </c>
-      <c r="I122" s="22">
+      <c r="I122" s="18">
         <v>5839.25550978229</v>
       </c>
-      <c r="J122" s="9">
+      <c r="J122" s="4">
         <f>VLOOKUP(D122,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>40106.88225</v>
       </c>
@@ -8873,16 +8855,16 @@
       <c r="F123" s="5">
         <v>36.066938</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="10">
         <v>10071722</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="11">
         <v>12400.56</v>
       </c>
-      <c r="I123" s="22">
+      <c r="I123" s="18">
         <v>6030.7535131111</v>
       </c>
-      <c r="J123" s="9">
+      <c r="J123" s="4">
         <f>VLOOKUP(D123,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>139354.3265</v>
       </c>
@@ -8906,16 +8888,16 @@
       <c r="F124" s="5">
         <v>36.813787</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="10">
         <v>4704138</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H124" s="11">
         <v>3673.54</v>
       </c>
-      <c r="I124" s="22">
+      <c r="I124" s="18">
         <v>6905.59167481611</v>
       </c>
-      <c r="J124" s="9">
+      <c r="J124" s="4">
         <f>VLOOKUP(D124,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>42415.2356</v>
       </c>
@@ -8939,16 +8921,16 @@
       <c r="F125" s="5">
         <v>36.455857</v>
       </c>
-      <c r="G125" s="13">
+      <c r="G125" s="12">
         <v>5952128</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="11">
         <v>2316.84</v>
       </c>
-      <c r="I125" s="22">
+      <c r="I125" s="18">
         <v>6406.00093754729</v>
       </c>
-      <c r="J125" s="9">
+      <c r="J125" s="4">
         <f>VLOOKUP(D125,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>27007.2821</v>
       </c>
@@ -8972,16 +8954,16 @@
       <c r="F126" s="5">
         <v>37.433992</v>
       </c>
-      <c r="G126" s="14">
+      <c r="G126" s="12">
         <v>2193518</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="11">
         <v>2981.19</v>
       </c>
-      <c r="I126" s="22">
+      <c r="I126" s="18">
         <v>6026.01202234428</v>
       </c>
-      <c r="J126" s="9">
+      <c r="J126" s="4">
         <f>VLOOKUP(D126,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>39629.05775</v>
       </c>
@@ -9005,16 +8987,16 @@
       <c r="F127" s="5">
         <v>37.382687</v>
       </c>
-      <c r="G127" s="13">
+      <c r="G127" s="12">
         <v>3928568</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="11">
         <v>2508.11</v>
       </c>
-      <c r="I127" s="22">
+      <c r="I127" s="18">
         <v>5992.07300606544</v>
       </c>
-      <c r="J127" s="9">
+      <c r="J127" s="4">
         <f>VLOOKUP(D127,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>33956.4601</v>
       </c>
@@ -9038,16 +9020,16 @@
       <c r="F128" s="5">
         <v>34.810858</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="10">
         <v>3855601</v>
       </c>
-      <c r="H128" s="12">
+      <c r="H128" s="11">
         <v>1733.25</v>
       </c>
-      <c r="I128" s="22">
+      <c r="I128" s="18">
         <v>7502.08998835044</v>
       </c>
-      <c r="J128" s="9">
+      <c r="J128" s="4">
         <f>VLOOKUP(D128,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17265.03575</v>
       </c>
@@ -9071,16 +9053,16 @@
       <c r="F129" s="5">
         <v>36.707668</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="10">
         <v>9386705</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="11">
         <v>5872.2</v>
       </c>
-      <c r="I129" s="22">
+      <c r="I129" s="18">
         <v>6206.14937293702</v>
       </c>
-      <c r="J129" s="9">
+      <c r="J129" s="4">
         <f>VLOOKUP(D129,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>77948.99485</v>
       </c>
@@ -9104,16 +9086,16 @@
       <c r="F130" s="5">
         <v>35.416912</v>
       </c>
-      <c r="G130" s="13">
+      <c r="G130" s="12">
         <v>2968365</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="11">
         <v>2006.43</v>
       </c>
-      <c r="I130" s="22">
+      <c r="I130" s="18">
         <v>6844.38678424756</v>
       </c>
-      <c r="J130" s="9">
+      <c r="J130" s="4">
         <f>VLOOKUP(D130,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26402.54435</v>
       </c>
@@ -9137,16 +9119,16 @@
       <c r="F131" s="5">
         <v>37.436492</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="10">
         <v>5611194</v>
       </c>
-      <c r="H131" s="12">
+      <c r="H131" s="11">
         <v>3078.99</v>
       </c>
-      <c r="I131" s="22">
+      <c r="I131" s="18">
         <v>6013.98515584624</v>
       </c>
-      <c r="J131" s="9">
+      <c r="J131" s="4">
         <f>VLOOKUP(D131,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>29194.20465</v>
       </c>
@@ -9170,16 +9152,16 @@
       <c r="F132" s="5">
         <v>36.652069</v>
       </c>
-      <c r="G132" s="13">
+      <c r="G132" s="12">
         <v>9202432</v>
       </c>
-      <c r="H132" s="12">
+      <c r="H132" s="11">
         <v>10140.9</v>
       </c>
-      <c r="I132" s="22">
+      <c r="I132" s="18">
         <v>7536.62945785137</v>
       </c>
-      <c r="J132" s="9">
+      <c r="J132" s="4">
         <f>VLOOKUP(D132,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>92031.12395</v>
       </c>
@@ -9203,16 +9185,16 @@
       <c r="F133" s="5">
         <v>35.103771</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="10">
         <v>11018365</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="11">
         <v>4805.25</v>
       </c>
-      <c r="I133" s="22">
+      <c r="I133" s="18">
         <v>7526.01967079345</v>
       </c>
-      <c r="J133" s="9">
+      <c r="J133" s="4">
         <f>VLOOKUP(D133,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>61404.15985</v>
       </c>
@@ -9236,16 +9218,16 @@
       <c r="F134" s="5">
         <v>35.415117</v>
       </c>
-      <c r="G134" s="13">
+      <c r="G134" s="12">
         <v>8357897</v>
       </c>
       <c r="H134" s="7">
         <v>4494.31</v>
       </c>
-      <c r="I134" s="22">
+      <c r="I134" s="18">
         <v>6850.62282703202</v>
       </c>
-      <c r="J134" s="9">
+      <c r="J134" s="4">
         <f>VLOOKUP(D134,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>37262.8797</v>
       </c>
@@ -9269,16 +9251,16 @@
       <c r="F135" s="5">
         <v>35.234309</v>
       </c>
-      <c r="G135" s="13">
+      <c r="G135" s="12">
         <v>8795939</v>
       </c>
-      <c r="H135" s="12">
+      <c r="H135" s="11">
         <v>3483.11</v>
       </c>
-      <c r="I135" s="22">
+      <c r="I135" s="18">
         <v>7001.15137471476</v>
       </c>
-      <c r="J135" s="9">
+      <c r="J135" s="4">
         <f>VLOOKUP(D135,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>34699.1418</v>
       </c>
@@ -9302,16 +9284,16 @@
       <c r="F136" s="5">
         <v>36.201784</v>
       </c>
-      <c r="G136" s="14">
+      <c r="G136" s="12">
         <v>5472217</v>
       </c>
       <c r="H136" s="7">
         <v>2766.5</v>
       </c>
-      <c r="I136" s="22">
+      <c r="I136" s="18">
         <v>7708.5137379008</v>
       </c>
-      <c r="J136" s="9">
+      <c r="J136" s="4">
         <f>VLOOKUP(D136,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>39906.3575</v>
       </c>
@@ -9338,13 +9320,13 @@
       <c r="G137" s="6">
         <v>2041231</v>
       </c>
-      <c r="H137" s="12">
+      <c r="H137" s="11">
         <v>739.46</v>
       </c>
-      <c r="I137" s="22">
+      <c r="I137" s="18">
         <v>7751.5924680668</v>
       </c>
-      <c r="J137" s="9">
+      <c r="J137" s="4">
         <f>VLOOKUP(D137,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3318.65655</v>
       </c>
@@ -9368,16 +9350,16 @@
       <c r="F138" s="5">
         <v>33.066373</v>
       </c>
-      <c r="G138" s="19">
+      <c r="G138" s="6">
         <v>3211462</v>
       </c>
-      <c r="H138" s="12">
+      <c r="H138" s="11">
         <v>1593.4</v>
       </c>
-      <c r="I138" s="22">
+      <c r="I138" s="18">
         <v>10510.5734921608</v>
       </c>
-      <c r="J138" s="9">
+      <c r="J138" s="4">
         <f>VLOOKUP(D138,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15374.33505</v>
       </c>
@@ -9401,16 +9383,16 @@
       <c r="F139" s="5">
         <v>34.897133</v>
       </c>
-      <c r="G139" s="29">
+      <c r="G139" s="24">
         <v>698322</v>
       </c>
-      <c r="H139" s="12">
+      <c r="H139" s="11">
         <v>381.75</v>
       </c>
-      <c r="I139" s="22">
+      <c r="I139" s="18">
         <v>6042.1664993566</v>
       </c>
-      <c r="J139" s="9">
+      <c r="J139" s="4">
         <f>VLOOKUP(D139,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5022.07235</v>
       </c>
@@ -9437,13 +9419,13 @@
       <c r="G140" s="6">
         <v>3624750</v>
       </c>
-      <c r="H140" s="12">
+      <c r="H140" s="11">
         <v>4089.66</v>
       </c>
-      <c r="I140" s="22">
+      <c r="I140" s="18">
         <v>5241.34738721274</v>
       </c>
-      <c r="J140" s="9">
+      <c r="J140" s="4">
         <f>VLOOKUP(D140,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>61636.256</v>
       </c>
@@ -9470,13 +9452,13 @@
       <c r="G141" s="6">
         <v>2282581</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H141" s="11">
         <v>1601.48</v>
       </c>
-      <c r="I141" s="22">
+      <c r="I141" s="18">
         <v>6123.42592675569</v>
       </c>
-      <c r="J141" s="9">
+      <c r="J141" s="4">
         <f>VLOOKUP(D141,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>25727.6942</v>
       </c>
@@ -9500,16 +9482,16 @@
       <c r="F142" s="5">
         <v>34.343207</v>
       </c>
-      <c r="G142" s="14">
+      <c r="G142" s="12">
         <v>12952907</v>
       </c>
-      <c r="H142" s="12">
+      <c r="H142" s="11">
         <v>10020.39</v>
       </c>
-      <c r="I142" s="22">
+      <c r="I142" s="18">
         <v>6788.26204278796</v>
       </c>
-      <c r="J142" s="9">
+      <c r="J142" s="4">
         <f>VLOOKUP(D142,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>149195.4811</v>
       </c>
@@ -9533,16 +9515,16 @@
       <c r="F143" s="5">
         <v>34.362862</v>
       </c>
-      <c r="G143" s="13">
+      <c r="G143" s="12">
         <v>3321853</v>
       </c>
-      <c r="H143" s="12">
+      <c r="H143" s="11">
         <v>2276.95</v>
       </c>
-      <c r="I143" s="22">
+      <c r="I143" s="18">
         <v>7902.8443389524</v>
       </c>
-      <c r="J143" s="9">
+      <c r="J143" s="4">
         <f>VLOOKUP(D143,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18304.1017</v>
       </c>
@@ -9566,16 +9548,16 @@
       <c r="F144" s="5">
         <v>32.685435</v>
       </c>
-      <c r="G144" s="14">
+      <c r="G144" s="12">
         <v>2493436</v>
       </c>
-      <c r="H144" s="12">
+      <c r="H144" s="11">
         <v>1088.78</v>
       </c>
-      <c r="I144" s="22">
+      <c r="I144" s="18">
         <v>9885.16687365323</v>
       </c>
-      <c r="J144" s="9">
+      <c r="J144" s="4">
         <f>VLOOKUP(D144,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7770.488</v>
       </c>
@@ -9599,16 +9581,16 @@
       <c r="F145" s="5">
         <v>34.520632</v>
       </c>
-      <c r="G145" s="13">
+      <c r="G145" s="12">
         <v>4688744</v>
       </c>
-      <c r="H145" s="12">
+      <c r="H145" s="11">
         <v>1866.27</v>
       </c>
-      <c r="I145" s="22">
+      <c r="I145" s="18">
         <v>6385.96075824694</v>
       </c>
-      <c r="J145" s="9">
+      <c r="J145" s="4">
         <f>VLOOKUP(D145,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>22531.8597</v>
       </c>
@@ -9632,16 +9614,16 @@
       <c r="F146" s="5">
         <v>34.329896</v>
       </c>
-      <c r="G146" s="13">
+      <c r="G146" s="12">
         <v>3959842</v>
       </c>
-      <c r="H146" s="12">
+      <c r="H146" s="11">
         <v>2204.81</v>
       </c>
-      <c r="I146" s="22">
+      <c r="I146" s="18">
         <v>6888.76940292094</v>
       </c>
-      <c r="J146" s="9">
+      <c r="J146" s="4">
         <f>VLOOKUP(D146,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>46049.5145</v>
       </c>
@@ -9665,16 +9647,16 @@
       <c r="F147" s="5">
         <v>31.231706</v>
       </c>
-      <c r="G147" s="19">
+      <c r="G147" s="6">
         <v>24870895</v>
       </c>
       <c r="H147" s="7">
         <v>38700.58</v>
       </c>
-      <c r="I147" s="22">
+      <c r="I147" s="18">
         <v>13485.8570867988</v>
       </c>
-      <c r="J147" s="28">
+      <c r="J147" s="23">
         <v>440347.7275</v>
       </c>
     </row>
@@ -9697,16 +9679,16 @@
       <c r="F148" s="5">
         <v>26.253103</v>
       </c>
-      <c r="G148" s="30">
+      <c r="G148" s="25">
         <v>2470630</v>
       </c>
       <c r="H148" s="7">
         <v>966.74</v>
       </c>
-      <c r="I148" s="22">
+      <c r="I148" s="18">
         <v>12820.900476926</v>
       </c>
-      <c r="J148" s="9">
+      <c r="J148" s="4">
         <f>VLOOKUP(D148,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18358.04865</v>
       </c>
@@ -9730,16 +9712,16 @@
       <c r="F149" s="5">
         <v>25.087733</v>
       </c>
-      <c r="G149" s="15">
+      <c r="G149" s="13">
         <v>3015112</v>
       </c>
-      <c r="H149" s="12">
+      <c r="H149" s="11">
         <v>1353.4</v>
       </c>
-      <c r="I149" s="22">
+      <c r="I149" s="18">
         <v>12662.089226823</v>
       </c>
-      <c r="J149" s="28">
+      <c r="J149" s="23">
         <v>13660.77215</v>
       </c>
     </row>
@@ -9762,16 +9744,16 @@
       <c r="F150" s="5">
         <v>26.253136</v>
       </c>
-      <c r="G150" s="15">
+      <c r="G150" s="13">
         <v>3494385</v>
       </c>
-      <c r="H150" s="12">
+      <c r="H150" s="11">
         <v>1595.4</v>
       </c>
-      <c r="I150" s="22">
+      <c r="I150" s="18">
         <v>12973.3463296676</v>
       </c>
-      <c r="J150" s="28">
+      <c r="J150" s="23">
         <v>17239.01215</v>
       </c>
     </row>
@@ -9794,16 +9776,16 @@
       <c r="F151" s="5">
         <v>27.721931</v>
       </c>
-      <c r="G151" s="13">
+      <c r="G151" s="12">
         <v>6606675</v>
       </c>
-      <c r="H151" s="12">
+      <c r="H151" s="11">
         <v>3720.05</v>
       </c>
-      <c r="I151" s="22">
+      <c r="I151" s="18">
         <v>11769.8677381054</v>
       </c>
-      <c r="J151" s="9">
+      <c r="J151" s="4">
         <f>VLOOKUP(D151,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>31828.9629</v>
       </c>
@@ -9827,16 +9809,16 @@
       <c r="F152" s="5">
         <v>26.592538</v>
       </c>
-      <c r="G152" s="13">
+      <c r="G152" s="12">
         <v>3031602</v>
       </c>
-      <c r="H152" s="12">
+      <c r="H152" s="11">
         <v>1339.62</v>
       </c>
-      <c r="I152" s="22">
+      <c r="I152" s="18">
         <v>11362.4298409081</v>
       </c>
-      <c r="J152" s="9">
+      <c r="J152" s="4">
         <f>VLOOKUP(D152,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14076.18655</v>
       </c>
@@ -9860,16 +9842,16 @@
       <c r="F153" s="5">
         <v>27.731555</v>
       </c>
-      <c r="G153" s="15">
+      <c r="G153" s="13">
         <v>3298468</v>
       </c>
-      <c r="H153" s="12">
+      <c r="H153" s="11">
         <v>1327.79</v>
       </c>
-      <c r="I153" s="22">
+      <c r="I153" s="18">
         <v>11909.8189503254</v>
       </c>
-      <c r="J153" s="9">
+      <c r="J153" s="4">
         <f>VLOOKUP(D153,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14972.84345</v>
       </c>
@@ -9893,16 +9875,16 @@
       <c r="F154" s="5">
         <v>26.583759</v>
       </c>
-      <c r="G154" s="17">
+      <c r="G154" s="13">
         <v>3758622</v>
       </c>
-      <c r="H154" s="12">
+      <c r="H154" s="11">
         <v>1191.52</v>
       </c>
-      <c r="I154" s="22">
+      <c r="I154" s="18">
         <v>13371.8488180007</v>
       </c>
-      <c r="J154" s="28">
+      <c r="J154" s="23">
         <v>16483.5151</v>
       </c>
     </row>
@@ -9925,16 +9907,16 @@
       <c r="F155" s="5">
         <v>27.283615</v>
       </c>
-      <c r="G155" s="15">
+      <c r="G155" s="13">
         <v>6899636</v>
       </c>
-      <c r="H155" s="12">
+      <c r="H155" s="11">
         <v>2020.39</v>
       </c>
-      <c r="I155" s="22">
+      <c r="I155" s="18">
         <v>11392.6516094327</v>
       </c>
-      <c r="J155" s="9">
+      <c r="J155" s="4">
         <f>VLOOKUP(D155,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20576.1197</v>
       </c>
@@ -9958,16 +9940,16 @@
       <c r="F156" s="5">
         <v>26.646694</v>
       </c>
-      <c r="G156" s="13">
+      <c r="G156" s="12">
         <v>5987018</v>
       </c>
-      <c r="H156" s="12">
+      <c r="H156" s="11">
         <v>4311.65</v>
       </c>
-      <c r="I156" s="22">
+      <c r="I156" s="18">
         <v>12580.8121084884</v>
       </c>
-      <c r="J156" s="9">
+      <c r="J156" s="4">
         <f>VLOOKUP(D156,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>72003.1377</v>
       </c>
@@ -9991,11 +9973,10 @@
       <c r="F157" s="5">
         <v>29.533155</v>
       </c>
-      <c r="G157" s="19"/>
-      <c r="I157" s="22">
+      <c r="I157" s="18">
         <v>11069.9401473066</v>
       </c>
-      <c r="J157" s="28">
+      <c r="J157" s="23">
         <v>216026.252</v>
       </c>
     </row>
@@ -10018,16 +9999,16 @@
       <c r="F158" s="5">
         <v>29.266838</v>
       </c>
-      <c r="G158" s="15">
+      <c r="G158" s="13">
         <v>798153</v>
       </c>
-      <c r="H158" s="12">
+      <c r="H158" s="11">
         <v>322.78</v>
       </c>
-      <c r="I158" s="22">
+      <c r="I158" s="18">
         <v>6112.70686893375</v>
       </c>
-      <c r="J158" s="9">
+      <c r="J158" s="4">
         <f>VLOOKUP(D158,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2615.50605</v>
       </c>
@@ -10051,16 +10032,16 @@
       <c r="F159" s="5">
         <v>31.477905</v>
       </c>
-      <c r="G159" s="15">
+      <c r="G159" s="13">
         <v>504838</v>
       </c>
-      <c r="H159" s="21">
+      <c r="H159" s="17">
         <v>170</v>
       </c>
-      <c r="I159" s="22">
+      <c r="I159" s="18">
         <v>6566.4754687688</v>
       </c>
-      <c r="J159" s="9">
+      <c r="J159" s="4">
         <f>VLOOKUP(D159,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1434.0515</v>
       </c>
@@ -10084,16 +10065,16 @@
       <c r="F160" s="5">
         <v>31.142879</v>
       </c>
-      <c r="G160" s="17">
+      <c r="G160" s="13">
         <v>760966</v>
       </c>
-      <c r="H160" s="21">
+      <c r="H160" s="17">
         <v>252.89</v>
       </c>
-      <c r="I160" s="22">
+      <c r="I160" s="18">
         <v>6636.90774369664</v>
       </c>
-      <c r="J160" s="9">
+      <c r="J160" s="4">
         <f>VLOOKUP(D160,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2763.07565</v>
       </c>
@@ -10117,16 +10098,16 @@
       <c r="F161" s="5">
         <v>29.237722</v>
       </c>
-      <c r="G161" s="17">
+      <c r="G161" s="13">
         <v>354035</v>
       </c>
-      <c r="H161" s="21">
+      <c r="H161" s="17">
         <v>215.4</v>
       </c>
-      <c r="I161" s="22">
+      <c r="I161" s="18">
         <v>5741.03477494534</v>
       </c>
-      <c r="J161" s="9">
+      <c r="J161" s="4">
         <f>VLOOKUP(D161,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2449.3891</v>
       </c>
@@ -10150,16 +10131,16 @@
       <c r="F162" s="5">
         <v>29.653491</v>
       </c>
-      <c r="G162" s="15">
+      <c r="G162" s="13">
         <v>867891</v>
       </c>
-      <c r="H162" s="21">
+      <c r="H162" s="17">
         <v>678.16</v>
       </c>
-      <c r="I162" s="22">
+      <c r="I162" s="18">
         <v>5826.17624235884</v>
       </c>
-      <c r="J162" s="9">
+      <c r="J162" s="4">
         <f>VLOOKUP(D162,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16607.867</v>
       </c>
@@ -10183,16 +10164,16 @@
       <c r="F163" s="5">
         <v>29.64875</v>
       </c>
-      <c r="G163" s="15">
+      <c r="G163" s="13">
         <v>238936</v>
       </c>
-      <c r="H163" s="21">
+      <c r="H163" s="17">
         <v>191.34</v>
       </c>
-      <c r="I163" s="22">
+      <c r="I163" s="18">
         <v>6866.24969550474</v>
       </c>
-      <c r="J163" s="9">
+      <c r="J163" s="4">
         <f>VLOOKUP(D163,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>848.1983</v>
       </c>
@@ -10216,16 +10197,16 @@
       <c r="F164" s="5">
         <v>32.500987</v>
       </c>
-      <c r="G164" s="15">
+      <c r="G164" s="13">
         <v>123281</v>
       </c>
-      <c r="H164" s="21">
+      <c r="H164" s="17">
         <v>68.6</v>
       </c>
-      <c r="I164" s="22">
+      <c r="I164" s="18">
         <v>4898.5605479577</v>
       </c>
-      <c r="J164" s="9">
+      <c r="J164" s="4">
         <f>VLOOKUP(D164,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2047.643</v>
       </c>
@@ -10249,16 +10230,16 @@
       <c r="F165" s="5">
         <v>30.674264</v>
       </c>
-      <c r="G165" s="13">
+      <c r="G165" s="12">
         <v>1342764</v>
       </c>
       <c r="H165" s="7">
         <v>868.9</v>
       </c>
-      <c r="I165" s="22">
+      <c r="I165" s="18">
         <v>13168.1138765542</v>
       </c>
-      <c r="J165" s="9">
+      <c r="J165" s="4">
         <f>VLOOKUP(D165,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6529.78695</v>
       </c>
@@ -10282,16 +10263,16 @@
       <c r="F166" s="5">
         <v>31.668765</v>
       </c>
-      <c r="G166" s="11">
+      <c r="G166" s="10">
         <v>2159930</v>
       </c>
       <c r="H166" s="7">
         <v>2186.9</v>
       </c>
-      <c r="I166" s="22">
+      <c r="I166" s="18">
         <v>8937.11269450839</v>
       </c>
-      <c r="J166" s="9">
+      <c r="J166" s="4">
         <f>VLOOKUP(D166,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>25164.1815</v>
       </c>
@@ -10315,16 +10296,16 @@
       <c r="F167" s="5">
         <v>32.891032</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G167" s="10">
         <v>8200264</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H167" s="11">
         <v>2805.2</v>
       </c>
-      <c r="I167" s="22">
+      <c r="I167" s="18">
         <v>7433.74117098276</v>
       </c>
-      <c r="J167" s="9">
+      <c r="J167" s="4">
         <f>VLOOKUP(D167,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>48448.56455</v>
       </c>
@@ -10348,16 +10329,16 @@
       <c r="F168" s="5">
         <v>33.956264</v>
       </c>
-      <c r="G168" s="13">
+      <c r="G168" s="12">
         <v>1970265</v>
       </c>
       <c r="H168" s="7">
         <v>1119.1</v>
       </c>
-      <c r="I168" s="22">
+      <c r="I168" s="18">
         <v>7384.70030963328</v>
       </c>
-      <c r="J168" s="9">
+      <c r="J168" s="4">
         <f>VLOOKUP(D168,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16994.19115</v>
       </c>
@@ -10381,16 +10362,16 @@
       <c r="F169" s="5">
         <v>30.945214</v>
       </c>
-      <c r="G169" s="13">
+      <c r="G169" s="12">
         <v>1311726</v>
       </c>
-      <c r="H169" s="12">
+      <c r="H169" s="11">
         <v>1003.7</v>
       </c>
-      <c r="I169" s="22">
+      <c r="I169" s="18">
         <v>10758.0987132562</v>
       </c>
-      <c r="J169" s="9">
+      <c r="J169" s="4">
         <f>VLOOKUP(D169,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11096.8289</v>
       </c>
@@ -10414,16 +10395,16 @@
       <c r="F170" s="5">
         <v>29.714886</v>
       </c>
-      <c r="G170" s="11">
+      <c r="G170" s="10">
         <v>1330565</v>
       </c>
-      <c r="H170" s="12">
+      <c r="H170" s="11">
         <v>850.4</v>
       </c>
-      <c r="I170" s="22">
+      <c r="I170" s="18">
         <v>16590.5351987183</v>
       </c>
-      <c r="J170" s="9">
+      <c r="J170" s="4">
         <f>VLOOKUP(D170,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2043.42135</v>
       </c>
@@ -10447,16 +10428,16 @@
       <c r="F171" s="5">
         <v>30.531828</v>
       </c>
-      <c r="G171" s="13">
+      <c r="G171" s="12">
         <v>4165284</v>
       </c>
-      <c r="H171" s="12">
+      <c r="H171" s="11">
         <v>2467.68</v>
       </c>
-      <c r="I171" s="22">
+      <c r="I171" s="18">
         <v>11335.7000078176</v>
       </c>
-      <c r="J171" s="9">
+      <c r="J171" s="4">
         <f>VLOOKUP(D171,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>24803.7392</v>
       </c>
@@ -10480,16 +10461,16 @@
       <c r="F172" s="5">
         <v>32.255904</v>
       </c>
-      <c r="G172" s="11">
+      <c r="G172" s="10">
         <v>3987054</v>
       </c>
-      <c r="H172" s="12">
+      <c r="H172" s="11">
         <v>3032.1</v>
       </c>
-      <c r="I172" s="22">
+      <c r="I172" s="18">
         <v>7489.77259049536</v>
       </c>
-      <c r="J172" s="9">
+      <c r="J172" s="4">
         <f>VLOOKUP(D172,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>46385.49175</v>
       </c>
@@ -10513,16 +10494,16 @@
       <c r="F173" s="5">
         <v>32.585384</v>
       </c>
-      <c r="G173" s="11">
+      <c r="G173" s="10">
         <v>3033528</v>
       </c>
-      <c r="H173" s="12">
+      <c r="H173" s="11">
         <v>1337.2</v>
       </c>
-      <c r="I173" s="22">
+      <c r="I173" s="18">
         <v>6910.62369883023</v>
       </c>
-      <c r="J173" s="9">
+      <c r="J173" s="4">
         <f>VLOOKUP(D173,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16736.1179</v>
       </c>
@@ -10546,16 +10527,16 @@
       <c r="F174" s="5">
         <v>31.735892</v>
       </c>
-      <c r="G174" s="13">
+      <c r="G174" s="12">
         <v>4393699</v>
       </c>
-      <c r="H174" s="12">
+      <c r="H174" s="11">
         <v>1669.5</v>
       </c>
-      <c r="I174" s="22">
+      <c r="I174" s="18">
         <v>8985.86746041916</v>
       </c>
-      <c r="J174" s="9">
+      <c r="J174" s="4">
         <f>VLOOKUP(D174,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>31313.45445</v>
       </c>
@@ -10579,16 +10560,16 @@
       <c r="F175" s="5">
         <v>32.91682</v>
       </c>
-      <c r="G175" s="14">
+      <c r="G175" s="12">
         <v>3296408</v>
       </c>
-      <c r="H175" s="31">
+      <c r="H175" s="26">
         <v>2082.73</v>
       </c>
-      <c r="I175" s="22">
+      <c r="I175" s="18">
         <v>7354.40120626981</v>
       </c>
-      <c r="J175" s="9">
+      <c r="J175" s="4">
         <f>VLOOKUP(D175,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26414.24695</v>
       </c>
@@ -10612,16 +10593,16 @@
       <c r="F176" s="5">
         <v>33.647726</v>
       </c>
-      <c r="G176" s="15">
+      <c r="G176" s="13">
         <v>5324476</v>
       </c>
-      <c r="H176" s="12">
+      <c r="H176" s="11">
         <v>2044.99</v>
       </c>
-      <c r="I176" s="22">
+      <c r="I176" s="18">
         <v>7417.46377201947</v>
       </c>
-      <c r="J176" s="9">
+      <c r="J176" s="4">
         <f>VLOOKUP(D176,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>24763.7364</v>
       </c>
@@ -10645,16 +10626,16 @@
       <c r="F177" s="5">
         <v>33.846285</v>
       </c>
-      <c r="G177" s="13">
+      <c r="G177" s="12">
         <v>4996844</v>
       </c>
-      <c r="H177" s="12">
+      <c r="H177" s="11">
         <v>1806</v>
       </c>
-      <c r="I177" s="22">
+      <c r="I177" s="18">
         <v>6707.92411515182</v>
       </c>
-      <c r="J177" s="9">
+      <c r="J177" s="4">
         <f>VLOOKUP(D177,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26823.3182</v>
       </c>
@@ -10678,16 +10659,16 @@
       <c r="F178" s="5">
         <v>31.352614</v>
       </c>
-      <c r="G178" s="13">
+      <c r="G178" s="12">
         <v>3644420</v>
       </c>
-      <c r="H178" s="12">
+      <c r="H178" s="11">
         <v>3753.02</v>
       </c>
-      <c r="I178" s="22">
+      <c r="I178" s="18">
         <v>10267.9698874372</v>
       </c>
-      <c r="J178" s="9">
+      <c r="J178" s="4">
         <f>VLOOKUP(D178,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>37610.11645</v>
       </c>
@@ -10711,16 +10692,16 @@
       <c r="F179" s="5">
         <v>31.820567</v>
       </c>
-      <c r="G179" s="11">
+      <c r="G179" s="10">
         <v>9369881</v>
       </c>
       <c r="H179" s="7">
         <v>10045.72</v>
       </c>
-      <c r="I179" s="22">
+      <c r="I179" s="18">
         <v>8401.42650614217</v>
       </c>
-      <c r="J179" s="9">
+      <c r="J179" s="4">
         <f>VLOOKUP(D179,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>136145.5182</v>
       </c>
@@ -10744,16 +10725,16 @@
       <c r="F180" s="5">
         <v>30.939278</v>
       </c>
-      <c r="G180" s="14">
+      <c r="G180" s="12">
         <v>2500063</v>
       </c>
-      <c r="H180" s="12">
+      <c r="H180" s="11">
         <v>1607.5</v>
       </c>
-      <c r="I180" s="22">
+      <c r="I180" s="18">
         <v>13271.1478706991</v>
       </c>
-      <c r="J180" s="9">
+      <c r="J180" s="4">
         <f>VLOOKUP(D180,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15792.5348</v>
       </c>
@@ -10777,16 +10758,16 @@
       <c r="F181" s="5">
         <v>25.454202</v>
       </c>
-      <c r="G181" s="14">
+      <c r="G181" s="12">
         <v>3210714</v>
       </c>
       <c r="H181" s="7">
         <v>2643.97</v>
       </c>
-      <c r="I181" s="22">
+      <c r="I181" s="18">
         <v>13511.9775715372</v>
       </c>
-      <c r="J181" s="9">
+      <c r="J181" s="4">
         <f>VLOOKUP(D181,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>44567.31075</v>
       </c>
@@ -10810,16 +10791,16 @@
       <c r="F182" s="5">
         <v>26.666222</v>
       </c>
-      <c r="G182" s="14">
+      <c r="G182" s="12">
         <v>3146789</v>
       </c>
-      <c r="H182" s="12">
+      <c r="H182" s="11">
         <v>2619</v>
       </c>
-      <c r="I182" s="22">
+      <c r="I182" s="18">
         <v>15772.2547784062</v>
       </c>
-      <c r="J182" s="9">
+      <c r="J182" s="4">
         <f>VLOOKUP(D182,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>29311.2289</v>
       </c>
@@ -10843,16 +10824,16 @@
       <c r="F183" s="5">
         <v>26.074286</v>
       </c>
-      <c r="G183" s="14">
+      <c r="G183" s="12">
         <v>8291268</v>
       </c>
-      <c r="H183" s="12">
+      <c r="H183" s="11">
         <v>10020.02</v>
       </c>
-      <c r="I183" s="22">
+      <c r="I183" s="18">
         <v>14122.3361811845</v>
       </c>
-      <c r="J183" s="9">
+      <c r="J183" s="4">
         <f>VLOOKUP(D183,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>138247.2002</v>
       </c>
@@ -10876,16 +10857,16 @@
       <c r="F184" s="5">
         <v>24.874452</v>
       </c>
-      <c r="G184" s="13">
+      <c r="G184" s="12">
         <v>8782285</v>
       </c>
-      <c r="H184" s="12">
+      <c r="H184" s="11">
         <v>10158.66</v>
       </c>
-      <c r="I184" s="22">
+      <c r="I184" s="18">
         <v>13489.3569393437</v>
       </c>
-      <c r="J184" s="9">
+      <c r="J184" s="4">
         <f>VLOOKUP(D184,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>147432.6747</v>
       </c>
@@ -10909,16 +10890,16 @@
       <c r="F185" s="5">
         <v>24.479627</v>
       </c>
-      <c r="G185" s="14">
+      <c r="G185" s="12">
         <v>5163970</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="11">
         <v>6384.02</v>
       </c>
-      <c r="I185" s="22">
+      <c r="I185" s="18">
         <v>14040.0511597504</v>
       </c>
-      <c r="J185" s="9">
+      <c r="J185" s="4">
         <f>VLOOKUP(D185,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>106113.0868</v>
       </c>
@@ -10942,16 +10923,16 @@
       <c r="F186" s="5">
         <v>24.515297</v>
       </c>
-      <c r="G186" s="13">
+      <c r="G186" s="12">
         <v>5054328</v>
       </c>
-      <c r="H186" s="12">
+      <c r="H186" s="11">
         <v>4545.61</v>
       </c>
-      <c r="I186" s="22">
+      <c r="I186" s="18">
         <v>15348.8211105512</v>
       </c>
-      <c r="J186" s="9">
+      <c r="J186" s="4">
         <f>VLOOKUP(D186,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>79126.65135</v>
       </c>
@@ -10975,16 +10956,16 @@
       <c r="F187" s="5">
         <v>27.382829</v>
       </c>
-      <c r="G187" s="13">
+      <c r="G187" s="12">
         <v>2680645</v>
       </c>
-      <c r="H187" s="12">
+      <c r="H187" s="11">
         <v>2007.4</v>
       </c>
-      <c r="I187" s="22">
+      <c r="I187" s="18">
         <v>17599.4676928846</v>
       </c>
-      <c r="J187" s="9">
+      <c r="J187" s="4">
         <f>VLOOKUP(D187,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17758.84045</v>
       </c>
@@ -11008,16 +10989,16 @@
       <c r="F188" s="5">
         <v>26.263455</v>
       </c>
-      <c r="G188" s="13">
+      <c r="G188" s="12">
         <v>2486450</v>
       </c>
-      <c r="H188" s="12">
+      <c r="H188" s="11">
         <v>2702.19</v>
       </c>
-      <c r="I188" s="22">
+      <c r="I188" s="18">
         <v>16841.5514281433</v>
       </c>
-      <c r="J188" s="9">
+      <c r="J188" s="4">
         <f>VLOOKUP(D188,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14684.0209</v>
       </c>
@@ -11041,16 +11022,16 @@
       <c r="F189" s="5">
         <v>25.075884</v>
       </c>
-      <c r="G189" s="13">
+      <c r="G189" s="12">
         <v>2723637</v>
       </c>
-      <c r="H189" s="12">
+      <c r="H189" s="11">
         <v>2870.9</v>
       </c>
-      <c r="I189" s="22">
+      <c r="I189" s="18">
         <v>16805.9009805687</v>
       </c>
-      <c r="J189" s="9">
+      <c r="J189" s="4">
         <f>VLOOKUP(D189,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>21692.0692</v>
       </c>
@@ -11074,16 +11055,16 @@
       <c r="F190" s="5">
         <v>29.35648</v>
       </c>
-      <c r="G190" s="13">
+      <c r="G190" s="12">
         <v>5051922</v>
       </c>
-      <c r="H190" s="12">
+      <c r="H190" s="11">
         <v>4001.55</v>
       </c>
-      <c r="I190" s="22">
+      <c r="I190" s="18">
         <v>11499.2494241899</v>
       </c>
-      <c r="J190" s="9">
+      <c r="J190" s="4">
         <f>VLOOKUP(D190,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17625.9262</v>
       </c>
@@ -11107,16 +11088,16 @@
       <c r="F191" s="5">
         <v>29.117343</v>
       </c>
-      <c r="G191" s="13">
+      <c r="G191" s="12">
         <v>1517027</v>
       </c>
-      <c r="H191" s="12">
+      <c r="H191" s="11">
         <v>556.68</v>
       </c>
-      <c r="I191" s="22">
+      <c r="I191" s="18">
         <v>11670.381547019</v>
       </c>
-      <c r="J191" s="9">
+      <c r="J191" s="4">
         <f>VLOOKUP(D191,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7392.9143</v>
       </c>
@@ -11140,16 +11121,16 @@
       <c r="F192" s="5">
         <v>26.894216</v>
       </c>
-      <c r="G192" s="13">
+      <c r="G192" s="12">
         <v>6645243</v>
       </c>
-      <c r="H192" s="12">
+      <c r="H192" s="11">
         <v>3508.5</v>
       </c>
-      <c r="I192" s="22">
+      <c r="I192" s="18">
         <v>15735.2434896627</v>
       </c>
-      <c r="J192" s="9">
+      <c r="J192" s="4">
         <f>VLOOKUP(D192,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16012.91215</v>
       </c>
@@ -11173,16 +11154,16 @@
       <c r="F193" s="5">
         <v>27.569813</v>
       </c>
-      <c r="G193" s="13">
+      <c r="G193" s="12">
         <v>4587594</v>
       </c>
-      <c r="H193" s="12">
+      <c r="H193" s="11">
         <v>1671.87</v>
       </c>
-      <c r="I193" s="22">
+      <c r="I193" s="18">
         <v>13996.6514249996</v>
       </c>
-      <c r="J193" s="9">
+      <c r="J193" s="4">
         <f>VLOOKUP(D193,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>10709.8592</v>
       </c>
@@ -11206,16 +11187,16 @@
       <c r="F194" s="5">
         <v>28.228304</v>
       </c>
-      <c r="G194" s="11">
+      <c r="G194" s="10">
         <v>10047914</v>
       </c>
-      <c r="H194" s="12">
+      <c r="H194" s="11">
         <v>12142.52</v>
       </c>
-      <c r="I194" s="22">
+      <c r="I194" s="18">
         <v>13417.1626068723</v>
       </c>
-      <c r="J194" s="9">
+      <c r="J194" s="4">
         <f>VLOOKUP(D194,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>116080.9651</v>
       </c>
@@ -11239,16 +11220,16 @@
       <c r="F195" s="5">
         <v>28.312592</v>
       </c>
-      <c r="G195" s="15">
+      <c r="G195" s="13">
         <v>2488105</v>
       </c>
-      <c r="H195" s="12">
+      <c r="H195" s="11">
         <v>725.11</v>
       </c>
-      <c r="I195" s="22">
+      <c r="I195" s="18">
         <v>12498.7701494755</v>
       </c>
-      <c r="J195" s="9">
+      <c r="J195" s="4">
         <f>VLOOKUP(D195,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7134.56395</v>
       </c>
@@ -11272,16 +11253,16 @@
       <c r="F196" s="5">
         <v>29.031446</v>
       </c>
-      <c r="G196" s="13">
+      <c r="G196" s="12">
         <v>5279102</v>
       </c>
-      <c r="H196" s="12">
+      <c r="H196" s="11">
         <v>3749.1</v>
       </c>
-      <c r="I196" s="22">
+      <c r="I196" s="18">
         <v>12045.5590812912</v>
       </c>
-      <c r="J196" s="9">
+      <c r="J196" s="4">
         <f>VLOOKUP(D196,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20091.08015</v>
       </c>
@@ -11305,16 +11286,16 @@
       <c r="F197" s="5">
         <v>27.83136</v>
       </c>
-      <c r="G197" s="11">
+      <c r="G197" s="10">
         <v>2726181</v>
       </c>
-      <c r="H197" s="12">
+      <c r="H197" s="11">
         <v>2343.1</v>
       </c>
-      <c r="I197" s="22">
+      <c r="I197" s="18">
         <v>14227.526362022</v>
       </c>
-      <c r="J197" s="9">
+      <c r="J197" s="4">
         <f>VLOOKUP(D197,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19846.7179</v>
       </c>
@@ -11338,16 +11319,16 @@
       <c r="F198" s="5">
         <v>27.828862</v>
       </c>
-      <c r="G198" s="11">
+      <c r="G198" s="10">
         <v>3902738</v>
       </c>
-      <c r="H198" s="12">
+      <c r="H198" s="11">
         <v>3105.8</v>
       </c>
-      <c r="I198" s="22">
+      <c r="I198" s="18">
         <v>15435.6319887543</v>
       </c>
-      <c r="J198" s="9">
+      <c r="J198" s="4">
         <f>VLOOKUP(D198,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20196.99845</v>
       </c>
@@ -11371,16 +11352,16 @@
       <c r="F199" s="5">
         <v>25.770117</v>
       </c>
-      <c r="G199" s="13">
+      <c r="G199" s="12">
         <v>4667134</v>
       </c>
-      <c r="H199" s="12">
+      <c r="H199" s="11">
         <v>2503.07</v>
       </c>
-      <c r="I199" s="22">
+      <c r="I199" s="18">
         <v>16225.1460974561</v>
       </c>
-      <c r="J199" s="9">
+      <c r="J199" s="4">
         <f>VLOOKUP(D199,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11119.78965</v>
       </c>
@@ -11404,16 +11385,16 @@
       <c r="F200" s="5">
         <v>27.239528</v>
       </c>
-      <c r="G200" s="13">
+      <c r="G200" s="12">
         <v>6563520</v>
       </c>
-      <c r="H200" s="12">
+      <c r="H200" s="11">
         <v>2250.8</v>
       </c>
-      <c r="I200" s="22">
+      <c r="I200" s="18">
         <v>14670.5997853417</v>
       </c>
-      <c r="J200" s="9">
+      <c r="J200" s="4">
         <f>VLOOKUP(D200,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12950.79905</v>
       </c>
@@ -11437,16 +11418,16 @@
       <c r="F201" s="5">
         <v>26.419861</v>
       </c>
-      <c r="G201" s="13">
+      <c r="G201" s="12">
         <v>5289824</v>
       </c>
-      <c r="H201" s="12">
+      <c r="H201" s="11">
         <v>2107.7</v>
       </c>
-      <c r="I201" s="22">
+      <c r="I201" s="18">
         <v>15776.6115591138</v>
       </c>
-      <c r="J201" s="9">
+      <c r="J201" s="4">
         <f>VLOOKUP(D201,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14962.8546</v>
       </c>
@@ -11470,16 +11451,16 @@
       <c r="F202" s="5">
         <v>28.554853</v>
       </c>
-      <c r="G202" s="13">
+      <c r="G202" s="12">
         <v>3851564</v>
       </c>
-      <c r="H202" s="12">
+      <c r="H202" s="11">
         <v>1853.48</v>
       </c>
-      <c r="I202" s="22">
+      <c r="I202" s="18">
         <v>13070.1927274301</v>
       </c>
-      <c r="J202" s="9">
+      <c r="J202" s="4">
         <f>VLOOKUP(D202,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7586.71915</v>
       </c>
@@ -11503,16 +11484,16 @@
       <c r="F203" s="5">
         <v>27.699838</v>
       </c>
-      <c r="G203" s="14">
+      <c r="G203" s="12">
         <v>3826996</v>
       </c>
-      <c r="H203" s="12">
+      <c r="H203" s="11">
         <v>1679.94</v>
       </c>
-      <c r="I203" s="22">
+      <c r="I203" s="18">
         <v>14891.0494340407</v>
       </c>
-      <c r="J203" s="9">
+      <c r="J203" s="4">
         <f>VLOOKUP(D203,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12341.9848</v>
       </c>
@@ -11536,16 +11517,16 @@
       <c r="F204" s="5">
         <v>19.681215</v>
       </c>
-      <c r="G204" s="15">
+      <c r="G204" s="13">
         <v>284690</v>
       </c>
-      <c r="H204" s="12">
+      <c r="H204" s="11">
         <v>105.88</v>
       </c>
-      <c r="I204" s="22">
+      <c r="I204" s="18">
         <v>19708.9710556084</v>
       </c>
-      <c r="J204" s="9">
+      <c r="J204" s="4">
         <f>VLOOKUP(D204,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1267.3026</v>
       </c>
@@ -11572,10 +11553,10 @@
       <c r="G205" s="6">
         <v>420594</v>
       </c>
-      <c r="I205" s="22">
+      <c r="I205" s="18">
         <v>16576.5027690185</v>
       </c>
-      <c r="J205" s="9">
+      <c r="J205" s="4">
         <f>VLOOKUP(D205,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1253.2347</v>
       </c>
@@ -11599,16 +11580,16 @@
       <c r="F206" s="5">
         <v>19.351662</v>
       </c>
-      <c r="G206" s="15">
+      <c r="G206" s="13">
         <v>255335</v>
       </c>
-      <c r="H206" s="21">
+      <c r="H206" s="17">
         <v>88.99</v>
       </c>
-      <c r="I206" s="22">
+      <c r="I206" s="18">
         <v>19691.7478354461</v>
       </c>
-      <c r="J206" s="9">
+      <c r="J206" s="4">
         <f>VLOOKUP(D206,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>616.305</v>
       </c>
@@ -11638,10 +11619,10 @@
       <c r="H207" s="7">
         <v>124.12</v>
       </c>
-      <c r="I207" s="22">
+      <c r="I207" s="18">
         <v>15386.4453251335</v>
       </c>
-      <c r="J207" s="9">
+      <c r="J207" s="4">
         <f>VLOOKUP(D207,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1990.1806</v>
       </c>
@@ -11665,16 +11646,16 @@
       <c r="F208" s="5">
         <v>19.221641</v>
       </c>
-      <c r="G208" s="15">
+      <c r="G208" s="13">
         <v>164699</v>
       </c>
-      <c r="H208" s="21">
+      <c r="H208" s="17">
         <v>56.85</v>
       </c>
-      <c r="I208" s="22">
+      <c r="I208" s="18">
         <v>17265.8274713053</v>
       </c>
-      <c r="J208" s="9">
+      <c r="J208" s="4">
         <f>VLOOKUP(D208,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>503.21845</v>
       </c>
@@ -11698,16 +11679,16 @@
       <c r="F209" s="5">
         <v>19.259112</v>
       </c>
-      <c r="G209" s="17">
+      <c r="G209" s="13">
         <v>528238</v>
       </c>
       <c r="H209" s="7">
         <v>292.1</v>
       </c>
-      <c r="I209" s="22">
+      <c r="I209" s="18">
         <v>22039.4579206628</v>
       </c>
-      <c r="J209" s="9">
+      <c r="J209" s="4">
         <f>VLOOKUP(D209,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2355.0276</v>
       </c>
@@ -11731,16 +11712,16 @@
       <c r="F210" s="5">
         <v>19.095187</v>
       </c>
-      <c r="G210" s="15">
+      <c r="G210" s="13">
         <v>444458</v>
       </c>
-      <c r="H210" s="12">
+      <c r="H210" s="11">
         <v>186.5</v>
       </c>
-      <c r="I210" s="22">
+      <c r="I210" s="18">
         <v>14378.3184189998</v>
       </c>
-      <c r="J210" s="9">
+      <c r="J210" s="4">
         <f>VLOOKUP(D210,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5471.61515</v>
       </c>
@@ -11764,13 +11745,13 @@
       <c r="F211" s="5">
         <v>16.831004</v>
       </c>
-      <c r="G211" s="15">
+      <c r="G211" s="13">
         <v>2333</v>
       </c>
-      <c r="I211" s="22">
+      <c r="I211" s="18">
         <v>13495.504671851</v>
       </c>
-      <c r="J211" s="9">
+      <c r="J211" s="4">
         <f>VLOOKUP(D211,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6686.3782</v>
       </c>
@@ -11794,16 +11775,16 @@
       <c r="F212" s="5">
         <v>18.793697</v>
       </c>
-      <c r="G212" s="17">
+      <c r="G212" s="13">
         <v>545992</v>
       </c>
       <c r="H212" s="7">
         <v>237.4</v>
       </c>
-      <c r="I212" s="22">
+      <c r="I212" s="18">
         <v>20092.9803874515</v>
       </c>
-      <c r="J212" s="9">
+      <c r="J212" s="4">
         <f>VLOOKUP(D212,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3411.15835</v>
       </c>
@@ -11827,16 +11808,16 @@
       <c r="F213" s="5">
         <v>19.03327</v>
       </c>
-      <c r="G213" s="32">
+      <c r="G213" s="27">
         <v>179586</v>
       </c>
-      <c r="H213" s="21">
+      <c r="H213" s="17">
         <v>59</v>
       </c>
-      <c r="I213" s="22">
+      <c r="I213" s="18">
         <v>21439.2991110211</v>
       </c>
-      <c r="J213" s="9">
+      <c r="J213" s="4">
         <f>VLOOKUP(D213,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>479.4033</v>
       </c>
@@ -11860,16 +11841,16 @@
       <c r="F214" s="5">
         <v>18.750063</v>
       </c>
-      <c r="G214" s="15">
+      <c r="G214" s="13">
         <v>464435</v>
       </c>
-      <c r="H214" s="33">
+      <c r="H214" s="28">
         <v>151.11</v>
       </c>
-      <c r="I214" s="22">
+      <c r="I214" s="18">
         <v>15710.8523643609</v>
       </c>
-      <c r="J214" s="9">
+      <c r="J214" s="4">
         <f>VLOOKUP(D214,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1470.1831</v>
       </c>
@@ -11893,11 +11874,10 @@
       <c r="F215" s="5">
         <v>18.506045</v>
       </c>
-      <c r="G215" s="19"/>
-      <c r="I215" s="22">
+      <c r="I215" s="18">
         <v>18871.1991983059</v>
       </c>
-      <c r="J215" s="9">
+      <c r="J215" s="4">
         <f>VLOOKUP(D215,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3886.10105</v>
       </c>
@@ -11921,16 +11901,16 @@
       <c r="F216" s="5">
         <v>19.738885</v>
       </c>
-      <c r="G216" s="15">
+      <c r="G216" s="13">
         <v>497953</v>
       </c>
-      <c r="H216" s="21">
+      <c r="H216" s="17">
         <v>348.4</v>
       </c>
-      <c r="I216" s="22">
+      <c r="I216" s="18">
         <v>17024.9195852241</v>
       </c>
-      <c r="J216" s="9">
+      <c r="J216" s="4">
         <f>VLOOKUP(D216,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4894.482</v>
       </c>
@@ -11954,16 +11934,16 @@
       <c r="F217" s="5">
         <v>18.252865</v>
       </c>
-      <c r="G217" s="15">
+      <c r="G217" s="13">
         <v>1031396</v>
       </c>
-      <c r="H217" s="12">
+      <c r="H217" s="11">
         <v>695.41</v>
       </c>
-      <c r="I217" s="22">
+      <c r="I217" s="18">
         <v>16477.0400630752</v>
       </c>
-      <c r="J217" s="9">
+      <c r="J217" s="4">
         <f>VLOOKUP(D217,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15692.42385</v>
       </c>
@@ -11987,16 +11967,16 @@
       <c r="F218" s="5">
         <v>19.520948</v>
       </c>
-      <c r="G218" s="15">
+      <c r="G218" s="13">
         <v>871118</v>
       </c>
-      <c r="H218" s="12">
+      <c r="H218" s="11">
         <v>359.41</v>
       </c>
-      <c r="I218" s="22">
+      <c r="I218" s="18">
         <v>16991.4573176958</v>
       </c>
-      <c r="J218" s="9">
+      <c r="J218" s="4">
         <f>VLOOKUP(D218,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13583.0913</v>
       </c>
@@ -12020,16 +12000,16 @@
       <c r="F219" s="5">
         <v>19.544234</v>
       </c>
-      <c r="G219" s="15">
+      <c r="G219" s="13">
         <v>560894</v>
       </c>
-      <c r="H219" s="12">
+      <c r="H219" s="11">
         <v>263.5</v>
       </c>
-      <c r="I219" s="22">
+      <c r="I219" s="18">
         <v>17503.4777713412</v>
       </c>
-      <c r="J219" s="9">
+      <c r="J219" s="4">
         <f>VLOOKUP(D219,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3655.348</v>
       </c>
@@ -12053,16 +12033,16 @@
       <c r="F220" s="5">
         <v>20.045805</v>
       </c>
-      <c r="G220" s="17">
+      <c r="G220" s="13">
         <v>2873358</v>
       </c>
-      <c r="H220" s="12">
+      <c r="H220" s="11">
         <v>1791.58</v>
       </c>
-      <c r="I220" s="22">
+      <c r="I220" s="18">
         <v>16844.56631728</v>
       </c>
-      <c r="J220" s="9">
+      <c r="J220" s="4">
         <f>VLOOKUP(D220,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>36931.41805</v>
       </c>
@@ -12086,16 +12066,16 @@
       <c r="F221" s="5">
         <v>18.774827</v>
       </c>
-      <c r="G221" s="15">
+      <c r="G221" s="13">
         <v>112269</v>
       </c>
       <c r="H221" s="7">
         <v>34.05</v>
       </c>
-      <c r="I221" s="22">
+      <c r="I221" s="18">
         <v>18914.768577038</v>
       </c>
-      <c r="J221" s="9">
+      <c r="J221" s="4">
         <f>VLOOKUP(D221,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>417.772</v>
       </c>
@@ -12119,16 +12099,16 @@
       <c r="F222" s="5">
         <v>18.640339</v>
       </c>
-      <c r="G222" s="17">
+      <c r="G222" s="13">
         <v>156108</v>
       </c>
-      <c r="H222" s="12">
+      <c r="H222" s="11">
         <v>56.27</v>
       </c>
-      <c r="I222" s="22">
+      <c r="I222" s="18">
         <v>18449.6108070189</v>
       </c>
-      <c r="J222" s="9">
+      <c r="J222" s="4">
         <f>VLOOKUP(D222,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>574.2117</v>
       </c>
@@ -12152,16 +12132,16 @@
       <c r="F223" s="5">
         <v>31.981269</v>
       </c>
-      <c r="G223" s="11">
+      <c r="G223" s="10">
         <v>7726635</v>
       </c>
-      <c r="H223" s="12">
+      <c r="H223" s="11">
         <v>10036.3</v>
       </c>
-      <c r="I223" s="22">
+      <c r="I223" s="18">
         <v>10627.8595617984</v>
       </c>
-      <c r="J223" s="9">
+      <c r="J223" s="4">
         <f>VLOOKUP(D223,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>117130.1344</v>
       </c>
@@ -12185,16 +12165,16 @@
       <c r="F224" s="5">
         <v>34.596639</v>
       </c>
-      <c r="G224" s="11">
+      <c r="G224" s="10">
         <v>4599360</v>
       </c>
       <c r="H224" s="7">
         <v>3277.07</v>
       </c>
-      <c r="I224" s="22">
+      <c r="I224" s="18">
         <v>8242.38050846921</v>
       </c>
-      <c r="J224" s="9">
+      <c r="J224" s="4">
         <f>VLOOKUP(D224,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>42108.77675</v>
       </c>
@@ -12218,16 +12198,16 @@
       <c r="F225" s="5">
         <v>33.963186</v>
       </c>
-      <c r="G225" s="11">
+      <c r="G225" s="10">
         <v>4986192</v>
       </c>
-      <c r="H225" s="12">
+      <c r="H225" s="11">
         <v>3262.37</v>
       </c>
-      <c r="I225" s="22">
+      <c r="I225" s="18">
         <v>7853.1718528581</v>
       </c>
-      <c r="J225" s="9">
+      <c r="J225" s="4">
         <f>VLOOKUP(D225,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>41076.4966</v>
       </c>
@@ -12251,16 +12231,16 @@
       <c r="F226" s="5">
         <v>32.456692</v>
       </c>
-      <c r="G226" s="11">
+      <c r="G226" s="10">
         <v>4512762</v>
       </c>
-      <c r="H226" s="12">
+      <c r="H226" s="11">
         <v>5312.77</v>
       </c>
-      <c r="I226" s="22">
+      <c r="I226" s="18">
         <v>9375.02003889438</v>
       </c>
-      <c r="J226" s="9">
+      <c r="J226" s="4">
         <f>VLOOKUP(D226,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>64961.8273</v>
       </c>
@@ -12284,16 +12264,16 @@
       <c r="F227" s="5">
         <v>31.811313</v>
       </c>
-      <c r="G227" s="11">
+      <c r="G227" s="10">
         <v>5278121</v>
       </c>
-      <c r="H227" s="12">
+      <c r="H227" s="11">
         <v>7805.3</v>
       </c>
-      <c r="I227" s="22">
+      <c r="I227" s="18">
         <v>10457.4789455897</v>
       </c>
-      <c r="J227" s="9">
+      <c r="J227" s="4">
         <f>VLOOKUP(D227,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>97297.3267</v>
       </c>
@@ -12317,16 +12297,16 @@
       <c r="F228" s="5">
         <v>32.059344</v>
       </c>
-      <c r="G228" s="11">
+      <c r="G228" s="10">
         <v>9314685</v>
       </c>
-      <c r="H228" s="12">
+      <c r="H228" s="11">
         <v>14817.95</v>
       </c>
-      <c r="I228" s="22">
+      <c r="I228" s="18">
         <v>8631.40153334418</v>
       </c>
-      <c r="J228" s="9">
+      <c r="J228" s="4">
         <f>VLOOKUP(D228,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>163331.623</v>
       </c>
@@ -12350,16 +12330,16 @@
       <c r="F229" s="5">
         <v>34.204224</v>
       </c>
-      <c r="G229" s="11">
+      <c r="G229" s="10">
         <v>9083790</v>
       </c>
-      <c r="H229" s="12">
+      <c r="H229" s="11">
         <v>7319.77</v>
       </c>
-      <c r="I229" s="22">
+      <c r="I229" s="18">
         <v>7311.67336404165</v>
       </c>
-      <c r="J229" s="9">
+      <c r="J229" s="4">
         <f>VLOOKUP(D229,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>65867.60125</v>
       </c>
@@ -12383,16 +12363,16 @@
       <c r="F230" s="5">
         <v>31.299758</v>
       </c>
-      <c r="G230" s="11">
+      <c r="G230" s="10">
         <v>12748262</v>
       </c>
-      <c r="H230" s="12">
+      <c r="H230" s="11">
         <v>20170.5</v>
       </c>
-      <c r="I230" s="22">
+      <c r="I230" s="18">
         <v>12197.5082383981</v>
       </c>
-      <c r="J230" s="9">
+      <c r="J230" s="4">
         <f>VLOOKUP(D230,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>352826.3654</v>
       </c>
@@ -12416,16 +12396,16 @@
       <c r="F231" s="5">
         <v>32.394404</v>
       </c>
-      <c r="G231" s="11">
+      <c r="G231" s="10">
         <v>4559797</v>
       </c>
-      <c r="H231" s="12">
+      <c r="H231" s="11">
         <v>6048.33</v>
       </c>
-      <c r="I231" s="22">
+      <c r="I231" s="18">
         <v>8433.59176498664</v>
       </c>
-      <c r="J231" s="9">
+      <c r="J231" s="4">
         <f>VLOOKUP(D231,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>62550.66785</v>
       </c>
@@ -12449,16 +12429,16 @@
       <c r="F232" s="5">
         <v>32.188141</v>
       </c>
-      <c r="G232" s="11">
+      <c r="G232" s="10">
         <v>3210418</v>
       </c>
-      <c r="H232" s="12">
+      <c r="H232" s="11">
         <v>4220.09</v>
       </c>
-      <c r="I232" s="22">
+      <c r="I232" s="18">
         <v>9547.56947994752</v>
       </c>
-      <c r="J232" s="9">
+      <c r="J232" s="4">
         <f>VLOOKUP(D232,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>56108.34145</v>
       </c>
@@ -12482,16 +12462,16 @@
       <c r="F233" s="5">
         <v>31.491064</v>
       </c>
-      <c r="G233" s="11">
+      <c r="G233" s="10">
         <v>7462135</v>
       </c>
-      <c r="H233" s="12">
+      <c r="H233" s="11">
         <v>12370.48</v>
       </c>
-      <c r="I233" s="22">
+      <c r="I233" s="18">
         <v>10750.9546991822</v>
       </c>
-      <c r="J233" s="9">
+      <c r="J233" s="4">
         <f>VLOOKUP(D233,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>133338.9395</v>
       </c>
@@ -12515,16 +12495,16 @@
       <c r="F234" s="5">
         <v>33.348176</v>
       </c>
-      <c r="G234" s="11">
+      <c r="G234" s="10">
         <v>6709629</v>
       </c>
-      <c r="H234" s="12">
+      <c r="H234" s="11">
         <v>5953.4</v>
       </c>
-      <c r="I234" s="22">
+      <c r="I234" s="18">
         <v>8397.75065112539</v>
       </c>
-      <c r="J234" s="9">
+      <c r="J234" s="4">
         <f>VLOOKUP(D234,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>78726.6002</v>
       </c>
@@ -12548,16 +12528,16 @@
       <c r="F235" s="5">
         <v>33.551495</v>
       </c>
-      <c r="G235" s="13">
+      <c r="G235" s="12">
         <v>4556230</v>
       </c>
-      <c r="H235" s="12">
+      <c r="H235" s="11">
         <v>4025.37</v>
       </c>
-      <c r="I235" s="22">
+      <c r="I235" s="18">
         <v>7899.01164787732</v>
       </c>
-      <c r="J235" s="9">
+      <c r="J235" s="4">
         <f>VLOOKUP(D235,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>51482.8671</v>
       </c>
@@ -12581,16 +12561,16 @@
       <c r="F236" s="5">
         <v>33.006308</v>
       </c>
-      <c r="G236" s="15">
+      <c r="G236" s="13">
         <v>425199</v>
       </c>
-      <c r="H236" s="16">
+      <c r="H236" s="14">
         <v>60</v>
       </c>
-      <c r="I236" s="22">
+      <c r="I236" s="18">
         <v>6075.84818244064</v>
       </c>
-      <c r="J236" s="9">
+      <c r="J236" s="4">
         <f>VLOOKUP(D236,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>811.31815</v>
       </c>
@@ -12614,16 +12594,16 @@
       <c r="F237" s="5">
         <v>36.296399</v>
       </c>
-      <c r="G237" s="15">
+      <c r="G237" s="13">
         <v>446996</v>
       </c>
-      <c r="H237" s="34">
+      <c r="H237" s="29">
         <v>95.09</v>
       </c>
-      <c r="I237" s="22">
+      <c r="I237" s="18">
         <v>5790.80047680196</v>
       </c>
-      <c r="J237" s="9">
+      <c r="J237" s="4">
         <f>VLOOKUP(D237,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1544.2639</v>
       </c>
@@ -12647,16 +12627,16 @@
       <c r="F238" s="5">
         <v>37.348114</v>
       </c>
-      <c r="G238" s="17">
+      <c r="G238" s="13">
         <v>468216</v>
       </c>
       <c r="H238" s="7">
         <v>619.81</v>
       </c>
-      <c r="I238" s="22">
+      <c r="I238" s="18">
         <v>4847.45839723988</v>
       </c>
-      <c r="J238" s="9">
+      <c r="J238" s="4">
         <f>VLOOKUP(D238,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13258.7601</v>
       </c>
@@ -12680,16 +12660,16 @@
       <c r="F239" s="5">
         <v>36.473448</v>
       </c>
-      <c r="G239" s="13">
+      <c r="G239" s="12">
         <v>1358471</v>
       </c>
       <c r="H239" s="7">
         <v>514.6</v>
       </c>
-      <c r="I239" s="22">
+      <c r="I239" s="18">
         <v>5525.28495626382</v>
       </c>
-      <c r="J239" s="9">
+      <c r="J239" s="4">
         <f>VLOOKUP(D239,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9583.50285</v>
       </c>
@@ -12713,16 +12693,16 @@
       <c r="F240" s="5">
         <v>34.472179</v>
       </c>
-      <c r="G240" s="15">
+      <c r="G240" s="13">
         <v>215573</v>
       </c>
       <c r="H240" s="7">
         <v>48.9</v>
       </c>
-      <c r="I240" s="22">
+      <c r="I240" s="18">
         <v>6983.82684566229</v>
       </c>
-      <c r="J240" s="9">
+      <c r="J240" s="4">
         <f>VLOOKUP(D240,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>565.95245</v>
       </c>
@@ -12746,16 +12726,16 @@
       <c r="F241" s="5">
         <v>35.519317</v>
       </c>
-      <c r="G241" s="15">
+      <c r="G241" s="13">
         <v>276215</v>
       </c>
-      <c r="H241" s="34">
+      <c r="H241" s="29">
         <v>95.09</v>
       </c>
-      <c r="I241" s="22">
+      <c r="I241" s="18">
         <v>6256.29872096825</v>
       </c>
-      <c r="J241" s="9">
+      <c r="J241" s="4">
         <f>VLOOKUP(D241,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>1872.47255</v>
       </c>
@@ -12779,16 +12759,16 @@
       <c r="F242" s="5">
         <v>36.616621</v>
       </c>
-      <c r="G242" s="14">
+      <c r="G242" s="12">
         <v>2467965</v>
       </c>
       <c r="H242" s="7">
         <v>1372.98</v>
       </c>
-      <c r="I242" s="22">
+      <c r="I242" s="18">
         <v>5458.15592317038</v>
       </c>
-      <c r="J242" s="9">
+      <c r="J242" s="4">
         <f>VLOOKUP(D242,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26046.7611</v>
       </c>
@@ -12812,16 +12792,16 @@
       <c r="F243" s="5">
         <v>36.954612</v>
       </c>
-      <c r="G243" s="17">
+      <c r="G243" s="13">
         <v>265322</v>
       </c>
-      <c r="H243" s="12">
+      <c r="H243" s="11">
         <v>95.09</v>
       </c>
-      <c r="I243" s="22">
+      <c r="I243" s="18">
         <v>5630.00393237072</v>
       </c>
-      <c r="J243" s="9">
+      <c r="J243" s="4">
         <f>VLOOKUP(D243,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>566.6255</v>
       </c>
@@ -12845,16 +12825,16 @@
       <c r="F244" s="5">
         <v>23.90307</v>
       </c>
-      <c r="G244" s="13">
+      <c r="G244" s="12">
         <v>3571505</v>
       </c>
-      <c r="H244" s="12">
+      <c r="H244" s="11">
         <v>1333.73</v>
       </c>
-      <c r="I244" s="22">
+      <c r="I244" s="18">
         <v>12583.1891575181</v>
       </c>
-      <c r="J244" s="9">
+      <c r="J244" s="4">
         <f>VLOOKUP(D244,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18492.8175</v>
       </c>
@@ -12878,16 +12858,16 @@
       <c r="F245" s="5">
         <v>21.980894</v>
       </c>
-      <c r="G245" s="15">
+      <c r="G245" s="13">
         <v>3302238</v>
       </c>
       <c r="H245" s="7">
         <v>1387.96</v>
       </c>
-      <c r="I245" s="22">
+      <c r="I245" s="18">
         <v>15105.3787233709</v>
       </c>
-      <c r="J245" s="9">
+      <c r="J245" s="4">
         <f>VLOOKUP(D245,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17281.4262</v>
       </c>
@@ -12911,16 +12891,16 @@
       <c r="F246" s="5">
         <v>21.481305</v>
       </c>
-      <c r="G246" s="15">
+      <c r="G246" s="13">
         <v>1853227</v>
       </c>
-      <c r="H246" s="35">
+      <c r="H246" s="30">
         <v>1276.91</v>
       </c>
-      <c r="I246" s="22">
+      <c r="I246" s="18">
         <v>15779.6824880703</v>
       </c>
-      <c r="J246" s="9">
+      <c r="J246" s="4">
         <f>VLOOKUP(D246,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16682.23155</v>
       </c>
@@ -12944,16 +12924,16 @@
       <c r="F247" s="5">
         <v>24.326442</v>
       </c>
-      <c r="G247" s="13">
+      <c r="G247" s="12">
         <v>4157934</v>
       </c>
       <c r="H247" s="7">
         <v>3176.94</v>
       </c>
-      <c r="I247" s="22">
+      <c r="I247" s="18">
         <v>15825.7849475569</v>
       </c>
-      <c r="J247" s="9">
+      <c r="J247" s="4">
         <f>VLOOKUP(D247,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>49474.05025</v>
       </c>
@@ -12977,16 +12957,16 @@
       <c r="F248" s="5">
         <v>23.476733</v>
       </c>
-      <c r="G248" s="13">
+      <c r="G248" s="12">
         <v>2820977</v>
       </c>
-      <c r="H248" s="12">
+      <c r="H248" s="11">
         <v>1081.34</v>
       </c>
-      <c r="I248" s="22">
+      <c r="I248" s="18">
         <v>16205.7191033688</v>
       </c>
-      <c r="J248" s="9">
+      <c r="J248" s="4">
         <f>VLOOKUP(D248,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9845.3835</v>
       </c>
@@ -13010,16 +12990,16 @@
       <c r="F249" s="5">
         <v>25.235615</v>
       </c>
-      <c r="G249" s="36">
+      <c r="G249" s="31">
         <v>4931137</v>
       </c>
-      <c r="H249" s="12">
+      <c r="H249" s="11">
         <v>2130.41</v>
       </c>
-      <c r="I249" s="22">
+      <c r="I249" s="18">
         <v>18674.5165117645</v>
       </c>
-      <c r="J249" s="9">
+      <c r="J249" s="4">
         <f>VLOOKUP(D249,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19960.16095</v>
       </c>
@@ -13043,16 +13023,16 @@
       <c r="F250" s="5">
         <v>24.404182</v>
       </c>
-      <c r="G250" s="15">
+      <c r="G250" s="13">
         <v>2007858</v>
       </c>
-      <c r="H250" s="12">
+      <c r="H250" s="11">
         <v>753.95</v>
       </c>
-      <c r="I250" s="22">
+      <c r="I250" s="18">
         <v>16894.0070243407</v>
       </c>
-      <c r="J250" s="9">
+      <c r="J250" s="4">
         <f>VLOOKUP(D250,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7792.79475</v>
       </c>
@@ -13076,16 +13056,16 @@
       <c r="F251" s="5">
         <v>23.750105</v>
       </c>
-      <c r="G251" s="15">
+      <c r="G251" s="13">
         <v>2074611</v>
       </c>
-      <c r="H251" s="12">
+      <c r="H251" s="11">
         <v>705.72</v>
       </c>
-      <c r="I251" s="22">
+      <c r="I251" s="18">
         <v>14337.7345859065</v>
       </c>
-      <c r="J251" s="9">
+      <c r="J251" s="4">
         <f>VLOOKUP(D251,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8760.96795</v>
       </c>
@@ -13109,16 +13089,16 @@
       <c r="F252" s="5">
         <v>24.692906</v>
       </c>
-      <c r="G252" s="15">
+      <c r="G252" s="13">
         <v>3417945</v>
       </c>
-      <c r="H252" s="12">
+      <c r="H252" s="11">
         <v>927.71</v>
       </c>
-      <c r="I252" s="22">
+      <c r="I252" s="18">
         <v>13737.2544016607</v>
       </c>
-      <c r="J252" s="9">
+      <c r="J252" s="4">
         <f>VLOOKUP(D252,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8452.48585</v>
       </c>
@@ -13142,16 +13122,16 @@
       <c r="F253" s="5">
         <v>22.654001</v>
       </c>
-      <c r="G253" s="14">
+      <c r="G253" s="12">
         <v>5796766</v>
       </c>
-      <c r="H253" s="12">
+      <c r="H253" s="11">
         <v>1761.08</v>
       </c>
-      <c r="I253" s="22">
+      <c r="I253" s="18">
         <v>15472.0901298951</v>
       </c>
-      <c r="J253" s="9">
+      <c r="J253" s="4">
         <f>VLOOKUP(D253,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15824.48215</v>
       </c>
@@ -13175,16 +13155,16 @@
       <c r="F254" s="5">
         <v>22.8177</v>
       </c>
-      <c r="G254" s="13">
+      <c r="G254" s="12">
         <v>8741584</v>
       </c>
-      <c r="H254" s="12">
+      <c r="H254" s="11">
         <v>4726.34</v>
       </c>
-      <c r="I254" s="22">
+      <c r="I254" s="18">
         <v>13332.8931190466</v>
       </c>
-      <c r="J254" s="9">
+      <c r="J254" s="4">
         <f>VLOOKUP(D254,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>82615.42315</v>
       </c>
@@ -13208,16 +13188,16 @@
       <c r="F255" s="5">
         <v>23.11182</v>
       </c>
-      <c r="G255" s="13">
+      <c r="G255" s="12">
         <v>4316262</v>
       </c>
-      <c r="H255" s="12">
+      <c r="H255" s="11">
         <v>1352.73</v>
       </c>
-      <c r="I255" s="22">
+      <c r="I255" s="18">
         <v>14934.9522983715</v>
       </c>
-      <c r="J255" s="9">
+      <c r="J255" s="4">
         <f>VLOOKUP(D255,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12180.78385</v>
       </c>
@@ -13241,16 +13221,16 @@
       <c r="F256" s="5">
         <v>22.377139</v>
       </c>
-      <c r="G256" s="15">
+      <c r="G256" s="13">
         <v>2088692</v>
       </c>
-      <c r="H256" s="12">
+      <c r="H256" s="11">
         <v>809</v>
       </c>
-      <c r="I256" s="22">
+      <c r="I256" s="18">
         <v>13167.7577578044</v>
       </c>
-      <c r="J256" s="9">
+      <c r="J256" s="4">
         <f>VLOOKUP(D256,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9776.5544</v>
       </c>
@@ -13274,16 +13254,16 @@
       <c r="F257" s="5">
         <v>21.686732</v>
       </c>
-      <c r="G257" s="13">
+      <c r="G257" s="12">
         <v>1046068</v>
       </c>
-      <c r="H257" s="12">
+      <c r="H257" s="11">
         <v>732.81</v>
       </c>
-      <c r="I257" s="22">
+      <c r="I257" s="18">
         <v>14412.6509957297</v>
       </c>
-      <c r="J257" s="9">
+      <c r="J257" s="4">
         <f>VLOOKUP(D257,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14224.38925</v>
       </c>
@@ -13307,16 +13287,16 @@
       <c r="F258" s="5">
         <v>38.984632</v>
       </c>
-      <c r="G258" s="13">
+      <c r="G258" s="12">
         <v>751389</v>
       </c>
-      <c r="H258" s="12">
+      <c r="H258" s="11">
         <v>541.62</v>
       </c>
-      <c r="I258" s="22">
+      <c r="I258" s="18">
         <v>2722.28106019419</v>
       </c>
-      <c r="J258" s="9">
+      <c r="J258" s="4">
         <f>VLOOKUP(D258,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7837.60255</v>
       </c>
@@ -13340,16 +13320,16 @@
       <c r="F259" s="5">
         <v>36.01628</v>
       </c>
-      <c r="G259" s="14">
+      <c r="G259" s="12">
         <v>1142142</v>
       </c>
-      <c r="H259" s="12">
+      <c r="H259" s="11">
         <v>352.46</v>
       </c>
-      <c r="I259" s="22">
+      <c r="I259" s="18">
         <v>7415.40792840407</v>
       </c>
-      <c r="J259" s="9">
+      <c r="J259" s="4">
         <f>VLOOKUP(D259,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8107.05135</v>
       </c>
@@ -13373,16 +13353,16 @@
       <c r="F260" s="5">
         <v>37.500185</v>
       </c>
-      <c r="G260" s="13">
+      <c r="G260" s="12">
         <v>1067336</v>
       </c>
       <c r="H260" s="7">
         <v>440.32</v>
       </c>
-      <c r="I260" s="22">
+      <c r="I260" s="18">
         <v>4450.4660602164</v>
       </c>
-      <c r="J260" s="9">
+      <c r="J260" s="4">
         <f>VLOOKUP(D260,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7929.5992</v>
       </c>
@@ -13406,16 +13386,16 @@
       <c r="F261" s="5">
         <v>37.997755</v>
       </c>
-      <c r="G261" s="13">
+      <c r="G261" s="12">
         <v>1382713</v>
       </c>
       <c r="H261" s="7">
         <v>621.77</v>
       </c>
-      <c r="I261" s="22">
+      <c r="I261" s="18">
         <v>4090.18421854965</v>
       </c>
-      <c r="J261" s="9">
+      <c r="J261" s="4">
         <f>VLOOKUP(D261,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12177.2823</v>
       </c>
@@ -13439,16 +13419,16 @@
       <c r="F262" s="5">
         <v>38.487783</v>
       </c>
-      <c r="G262" s="37">
+      <c r="G262" s="12">
         <v>2859074</v>
       </c>
-      <c r="H262" s="12">
+      <c r="H262" s="11">
         <v>1964.37</v>
       </c>
-      <c r="I262" s="22">
+      <c r="I262" s="18">
         <v>2815.99031671315</v>
       </c>
-      <c r="J262" s="9">
+      <c r="J262" s="4">
         <f>VLOOKUP(D262,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>57689.8385</v>
       </c>
@@ -13472,16 +13452,16 @@
       <c r="F263" s="5">
         <v>30.746814</v>
       </c>
-      <c r="G263" s="11">
+      <c r="G263" s="10">
         <v>5400868</v>
       </c>
       <c r="H263" s="7">
         <v>5509.52</v>
       </c>
-      <c r="I263" s="22">
+      <c r="I263" s="18">
         <v>14539.9574111964</v>
       </c>
-      <c r="J263" s="9">
+      <c r="J263" s="4">
         <f>VLOOKUP(D263,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>99305.2024</v>
       </c>
@@ -13505,16 +13485,16 @@
       <c r="F264" s="5">
         <v>29.985578</v>
       </c>
-      <c r="G264" s="11">
+      <c r="G264" s="10">
         <v>1157817</v>
       </c>
-      <c r="H264" s="12">
+      <c r="H264" s="11">
         <v>1512.1</v>
       </c>
-      <c r="I264" s="22">
+      <c r="I264" s="18">
         <v>13820.5951700997</v>
       </c>
-      <c r="J264" s="9">
+      <c r="J264" s="4">
         <f>VLOOKUP(D264,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>44765.4321</v>
       </c>
@@ -13538,16 +13518,16 @@
       <c r="F265" s="5">
         <v>29.860258</v>
       </c>
-      <c r="G265" s="11">
+      <c r="G265" s="10">
         <v>9404283</v>
       </c>
-      <c r="H265" s="12">
+      <c r="H265" s="11">
         <v>12408.7</v>
       </c>
-      <c r="I265" s="22">
+      <c r="I265" s="18">
         <v>17586.1721334481</v>
       </c>
-      <c r="J265" s="9">
+      <c r="J265" s="4">
         <f>VLOOKUP(D265,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>229020.3108</v>
       </c>
@@ -13571,16 +13551,16 @@
       <c r="F266" s="5">
         <v>28.655716</v>
       </c>
-      <c r="G266" s="11">
+      <c r="G266" s="10">
         <v>6622888</v>
       </c>
-      <c r="H266" s="12">
+      <c r="H266" s="11">
         <v>5262.72</v>
       </c>
-      <c r="I266" s="22">
+      <c r="I266" s="18">
         <v>17231.3932952313</v>
       </c>
-      <c r="J266" s="9">
+      <c r="J266" s="4">
         <f>VLOOKUP(D266,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>92797.5288</v>
       </c>
@@ -13604,16 +13584,16 @@
       <c r="F267" s="5">
         <v>27.993849</v>
       </c>
-      <c r="G267" s="11">
+      <c r="G267" s="10">
         <v>9572903</v>
       </c>
-      <c r="H267" s="12">
+      <c r="H267" s="11">
         <v>6870.9</v>
       </c>
-      <c r="I267" s="22">
+      <c r="I267" s="18">
         <v>15292.7946623369</v>
       </c>
-      <c r="J267" s="9">
+      <c r="J267" s="4">
         <f>VLOOKUP(D267,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>130892.4637</v>
       </c>
@@ -13637,16 +13617,16 @@
       <c r="F268" s="5">
         <v>28.467694</v>
       </c>
-      <c r="G268" s="13">
+      <c r="G268" s="12">
         <v>2507396</v>
       </c>
-      <c r="H268" s="12">
+      <c r="H268" s="11">
         <v>1540.02</v>
       </c>
-      <c r="I268" s="22">
+      <c r="I268" s="18">
         <v>16283.8472502213</v>
       </c>
-      <c r="J268" s="9">
+      <c r="J268" s="4">
         <f>VLOOKUP(D268,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>25129.56805</v>
       </c>
@@ -13670,16 +13650,16 @@
       <c r="F269" s="5">
         <v>29.079195</v>
       </c>
-      <c r="G269" s="11">
+      <c r="G269" s="10">
         <v>7050683</v>
       </c>
-      <c r="H269" s="12">
+      <c r="H269" s="11">
         <v>4703.95</v>
       </c>
-      <c r="I269" s="22">
+      <c r="I269" s="18">
         <v>15658.4928633042</v>
       </c>
-      <c r="J269" s="9">
+      <c r="J269" s="4">
         <f>VLOOKUP(D269,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>116523.1358</v>
       </c>
@@ -13703,16 +13683,16 @@
       <c r="F270" s="5">
         <v>30.894178</v>
       </c>
-      <c r="G270" s="11">
+      <c r="G270" s="10">
         <v>3367579</v>
       </c>
-      <c r="H270" s="12">
+      <c r="H270" s="11">
         <v>3201.4</v>
       </c>
-      <c r="I270" s="22">
+      <c r="I270" s="18">
         <v>13650.6041521775</v>
       </c>
-      <c r="J270" s="9">
+      <c r="J270" s="4">
         <f>VLOOKUP(D270,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>52183.28375</v>
       </c>
@@ -13736,16 +13716,16 @@
       <c r="F271" s="5">
         <v>30.051549</v>
       </c>
-      <c r="G271" s="11">
+      <c r="G271" s="10">
         <v>5270977</v>
       </c>
-      <c r="H271" s="12">
+      <c r="H271" s="11">
         <v>6001</v>
       </c>
-      <c r="I271" s="22">
+      <c r="I271" s="18">
         <v>15955.4728215912</v>
       </c>
-      <c r="J271" s="9">
+      <c r="J271" s="4">
         <f>VLOOKUP(D271,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>81408.21195</v>
       </c>
@@ -13769,16 +13749,16 @@
       <c r="F272" s="5">
         <v>28.970229</v>
       </c>
-      <c r="G272" s="20">
+      <c r="G272" s="16">
         <v>2276184</v>
       </c>
-      <c r="H272" s="12">
+      <c r="H272" s="11">
         <v>1639.12</v>
       </c>
-      <c r="I272" s="22">
+      <c r="I272" s="18">
         <v>16231.6876675913</v>
       </c>
-      <c r="J272" s="9">
+      <c r="J272" s="4">
         <f>VLOOKUP(D272,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>20406.8403</v>
       </c>
@@ -13802,16 +13782,16 @@
       <c r="F273" s="5">
         <v>30.246026</v>
       </c>
-      <c r="G273" s="11">
+      <c r="G273" s="10">
         <v>11936010</v>
       </c>
-      <c r="H273" s="12">
+      <c r="H273" s="11">
         <v>16106</v>
       </c>
-      <c r="I273" s="22">
+      <c r="I273" s="18">
         <v>15492.4058204134</v>
       </c>
-      <c r="J273" s="9">
+      <c r="J273" s="4">
         <f>VLOOKUP(D273,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>208177.4429</v>
       </c>
@@ -13835,16 +13815,16 @@
       <c r="F274" s="5">
         <v>39.63068</v>
       </c>
-      <c r="G274" s="14">
+      <c r="G274" s="12">
         <v>7717983</v>
       </c>
-      <c r="H274" s="12">
+      <c r="H274" s="11">
         <v>7210.9</v>
       </c>
-      <c r="I274" s="22">
+      <c r="I274" s="18">
         <v>5385.98720656069</v>
       </c>
-      <c r="J274" s="9">
+      <c r="J274" s="4">
         <f>VLOOKUP(D274,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>96175.6791</v>
       </c>
@@ -13868,16 +13848,16 @@
       <c r="F275" s="5">
         <v>39.538304</v>
       </c>
-      <c r="G275" s="13">
+      <c r="G275" s="12">
         <v>5464087</v>
       </c>
-      <c r="H275" s="21">
+      <c r="H275" s="17">
         <v>3301.1</v>
       </c>
-      <c r="I275" s="22">
+      <c r="I275" s="18">
         <v>4881.5322707886</v>
       </c>
-      <c r="J275" s="9">
+      <c r="J275" s="4">
         <f>VLOOKUP(D275,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>54497.08365</v>
       </c>
@@ -13901,16 +13881,16 @@
       <c r="F276" s="5">
         <v>39.888243</v>
       </c>
-      <c r="G276" s="15">
+      <c r="G276" s="13">
         <v>3136879</v>
       </c>
-      <c r="H276" s="12">
+      <c r="H276" s="11">
         <v>1685.8</v>
       </c>
-      <c r="I276" s="22">
+      <c r="I276" s="18">
         <v>6369.42833692102</v>
       </c>
-      <c r="J276" s="9">
+      <c r="J276" s="4">
         <f>VLOOKUP(D276,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>26720.90715</v>
       </c>
@@ -13934,16 +13914,16 @@
       <c r="F277" s="5">
         <v>36.625849</v>
       </c>
-      <c r="G277" s="13">
+      <c r="G277" s="12">
         <v>9413990</v>
       </c>
-      <c r="H277" s="12">
+      <c r="H277" s="11">
         <v>3636.6</v>
       </c>
-      <c r="I277" s="22">
+      <c r="I277" s="18">
         <v>6037.14536593874</v>
       </c>
-      <c r="J277" s="9">
+      <c r="J277" s="4">
         <f>VLOOKUP(D277,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>30394.2012</v>
       </c>
@@ -13967,16 +13947,16 @@
       <c r="F278" s="5">
         <v>40.952942</v>
       </c>
-      <c r="G278" s="13">
+      <c r="G278" s="12">
         <v>3354444</v>
       </c>
-      <c r="H278" s="12">
+      <c r="H278" s="11">
         <v>1550.3</v>
       </c>
-      <c r="I278" s="22">
+      <c r="I278" s="18">
         <v>5148.36586510966</v>
       </c>
-      <c r="J278" s="9">
+      <c r="J278" s="4">
         <f>VLOOKUP(D278,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15471.55735</v>
       </c>
@@ -14000,16 +13980,16 @@
       <c r="F279" s="5">
         <v>38.304676</v>
       </c>
-      <c r="G279" s="14">
+      <c r="G279" s="12">
         <v>7300783</v>
       </c>
-      <c r="H279" s="12">
+      <c r="H279" s="11">
         <v>3699.9</v>
       </c>
-      <c r="I279" s="22">
+      <c r="I279" s="18">
         <v>5575.81838195357</v>
       </c>
-      <c r="J279" s="9">
+      <c r="J279" s="4">
         <f>VLOOKUP(D279,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>48022.9852</v>
       </c>
@@ -14033,16 +14013,16 @@
       <c r="F280" s="5">
         <v>37.060227</v>
       </c>
-      <c r="G280" s="13">
+      <c r="G280" s="12">
         <v>7111106</v>
       </c>
-      <c r="H280" s="12">
+      <c r="H280" s="11">
         <v>2200.4</v>
       </c>
-      <c r="I280" s="22">
+      <c r="I280" s="18">
         <v>5105.3682339437</v>
       </c>
-      <c r="J280" s="9">
+      <c r="J280" s="4">
         <f>VLOOKUP(D280,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23333.62205</v>
       </c>
@@ -14066,16 +14046,16 @@
       <c r="F281" s="5">
         <v>37.739367</v>
       </c>
-      <c r="G281" s="13">
+      <c r="G281" s="12">
         <v>4212933</v>
       </c>
-      <c r="H281" s="12">
+      <c r="H281" s="11">
         <v>1560.2</v>
       </c>
-      <c r="I281" s="22">
+      <c r="I281" s="18">
         <v>4968.06577453842</v>
       </c>
-      <c r="J281" s="9">
+      <c r="J281" s="4">
         <f>VLOOKUP(D281,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11429.06745</v>
       </c>
@@ -14099,16 +14079,16 @@
       <c r="F282" s="5">
         <v>40.768931</v>
       </c>
-      <c r="G282" s="13">
+      <c r="G282" s="12">
         <v>4118908</v>
       </c>
-      <c r="H282" s="12">
+      <c r="H282" s="11">
         <v>1600.1</v>
       </c>
-      <c r="I282" s="22">
+      <c r="I282" s="18">
         <v>5029.27452674039</v>
       </c>
-      <c r="J282" s="9">
+      <c r="J282" s="4">
         <f>VLOOKUP(D282,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>23466.8346</v>
       </c>
@@ -14132,16 +14112,16 @@
       <c r="F283" s="5">
         <v>38.874476</v>
       </c>
-      <c r="G283" s="13">
+      <c r="G283" s="12">
         <v>9242610</v>
       </c>
-      <c r="H283" s="12">
+      <c r="H283" s="11">
         <v>3353.3</v>
       </c>
-      <c r="I283" s="22">
+      <c r="I283" s="18">
         <v>5068.99592080401</v>
       </c>
-      <c r="J283" s="9">
+      <c r="J283" s="4">
         <f>VLOOKUP(D283,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>50625.71875</v>
       </c>
@@ -14165,16 +14145,16 @@
       <c r="F284" s="5">
         <v>38.042007</v>
       </c>
-      <c r="G284" s="13">
+      <c r="G284" s="12">
         <v>11235086</v>
       </c>
-      <c r="H284" s="12">
+      <c r="H284" s="11">
         <v>5935.1</v>
       </c>
-      <c r="I284" s="22">
+      <c r="I284" s="18">
         <v>5516.74263415489</v>
       </c>
-      <c r="J284" s="9">
+      <c r="J284" s="4">
         <f>VLOOKUP(D284,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>69475.14735</v>
       </c>
@@ -14198,7 +14178,7 @@
       <c r="F285" s="5">
         <v>22.44565306</v>
       </c>
-      <c r="J285" s="9" t="e">
+      <c r="J285" s="4" t="e">
         <f>VLOOKUP(D285,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14222,7 +14202,7 @@
       <c r="F286" s="5">
         <v>22.31421306</v>
       </c>
-      <c r="J286" s="9" t="e">
+      <c r="J286" s="4" t="e">
         <f>VLOOKUP(D286,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14246,7 +14226,7 @@
       <c r="F287" s="5">
         <v>22.49610389</v>
       </c>
-      <c r="J287" s="9" t="e">
+      <c r="J287" s="4" t="e">
         <f>VLOOKUP(D287,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14270,7 +14250,7 @@
       <c r="F288" s="5">
         <v>22.32083778</v>
       </c>
-      <c r="J288" s="9" t="e">
+      <c r="J288" s="4" t="e">
         <f>VLOOKUP(D288,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14294,7 +14274,7 @@
       <c r="F289" s="5">
         <v>22.33632056</v>
       </c>
-      <c r="J289" s="9" t="e">
+      <c r="J289" s="4" t="e">
         <f>VLOOKUP(D289,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14318,7 +14298,7 @@
       <c r="F290" s="5">
         <v>22.33385417</v>
       </c>
-      <c r="J290" s="9" t="e">
+      <c r="J290" s="4" t="e">
         <f>VLOOKUP(D290,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14342,7 +14322,7 @@
       <c r="F291" s="5">
         <v>22.27969306</v>
       </c>
-      <c r="J291" s="9" t="e">
+      <c r="J291" s="4" t="e">
         <f>VLOOKUP(D291,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14366,7 +14346,7 @@
       <c r="F292" s="5">
         <v>22.31251</v>
       </c>
-      <c r="J292" s="9" t="e">
+      <c r="J292" s="4" t="e">
         <f>VLOOKUP(D292,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14390,7 +14370,7 @@
       <c r="F293" s="5">
         <v>22.37953167</v>
       </c>
-      <c r="J293" s="9" t="e">
+      <c r="J293" s="4" t="e">
         <f>VLOOKUP(D293,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14414,7 +14394,7 @@
       <c r="F294" s="5">
         <v>22.39384417</v>
       </c>
-      <c r="J294" s="9" t="e">
+      <c r="J294" s="4" t="e">
         <f>VLOOKUP(D294,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14438,7 +14418,7 @@
       <c r="F295" s="5">
         <v>22.31170389</v>
       </c>
-      <c r="J295" s="9" t="e">
+      <c r="J295" s="4" t="e">
         <f>VLOOKUP(D295,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14462,7 +14442,7 @@
       <c r="F296" s="5">
         <v>22.28640778</v>
       </c>
-      <c r="J296" s="9" t="e">
+      <c r="J296" s="4" t="e">
         <f>VLOOKUP(D296,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14486,7 +14466,7 @@
       <c r="F297" s="5">
         <v>22.28198083</v>
       </c>
-      <c r="J297" s="9" t="e">
+      <c r="J297" s="4" t="e">
         <f>VLOOKUP(D297,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14510,7 +14490,7 @@
       <c r="F298" s="5">
         <v>22.24589667</v>
       </c>
-      <c r="J298" s="9" t="e">
+      <c r="J298" s="4" t="e">
         <f>VLOOKUP(D298,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14534,7 +14514,7 @@
       <c r="F299" s="5">
         <v>22.44142833</v>
       </c>
-      <c r="J299" s="9" t="e">
+      <c r="J299" s="4" t="e">
         <f>VLOOKUP(D299,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14558,7 +14538,7 @@
       <c r="F300" s="5">
         <v>22.27638889</v>
       </c>
-      <c r="J300" s="9" t="e">
+      <c r="J300" s="4" t="e">
         <f>VLOOKUP(D300,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14582,7 +14562,7 @@
       <c r="F301" s="5">
         <v>22.36830667</v>
       </c>
-      <c r="J301" s="9" t="e">
+      <c r="J301" s="4" t="e">
         <f>VLOOKUP(D301,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14606,7 +14586,7 @@
       <c r="F302" s="5">
         <v>22.36387667</v>
       </c>
-      <c r="J302" s="9" t="e">
+      <c r="J302" s="4" t="e">
         <f>VLOOKUP(D302,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14630,7 +14610,7 @@
       <c r="F303" s="5">
         <v>22.15375944</v>
       </c>
-      <c r="J303" s="9" t="e">
+      <c r="J303" s="4" t="e">
         <f>VLOOKUP(D303,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14654,7 +14634,7 @@
       <c r="F304" s="5">
         <v>22.19372083</v>
       </c>
-      <c r="J304" s="9" t="e">
+      <c r="J304" s="4" t="e">
         <f>VLOOKUP(D304,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14678,7 +14658,7 @@
       <c r="F305" s="5">
         <v>22.13663</v>
       </c>
-      <c r="J305" s="9" t="e">
+      <c r="J305" s="4" t="e">
         <f>VLOOKUP(D305,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14702,7 +14682,7 @@
       <c r="F306" s="5">
         <v>22.12348639</v>
       </c>
-      <c r="J306" s="9" t="e">
+      <c r="J306" s="4" t="e">
         <f>VLOOKUP(D306,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14726,7 +14706,7 @@
       <c r="F307" s="5">
         <v>22.1992075</v>
       </c>
-      <c r="J307" s="9" t="e">
+      <c r="J307" s="4" t="e">
         <f>VLOOKUP(D307,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14750,7 +14730,7 @@
       <c r="F308" s="5">
         <v>22.20787</v>
       </c>
-      <c r="J308" s="9" t="e">
+      <c r="J308" s="4" t="e">
         <f>VLOOKUP(D308,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14774,7 +14754,7 @@
       <c r="F309" s="5">
         <v>22.18736806</v>
       </c>
-      <c r="J309" s="9" t="e">
+      <c r="J309" s="4" t="e">
         <f>VLOOKUP(D309,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14798,7 +14778,7 @@
       <c r="F310" s="5">
         <v>22.18853944</v>
       </c>
-      <c r="J310" s="9" t="e">
+      <c r="J310" s="4" t="e">
         <f>VLOOKUP(D310,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>#N/A</v>
       </c>
@@ -14822,16 +14802,16 @@
       <c r="F311" s="5">
         <v>38.521468</v>
       </c>
-      <c r="G311" s="32">
+      <c r="G311" s="27">
         <v>438026</v>
       </c>
-      <c r="H311" s="12">
+      <c r="H311" s="11">
         <v>358.62</v>
       </c>
-      <c r="I311" s="22">
+      <c r="I311" s="18">
         <v>4560.90541682159</v>
       </c>
-      <c r="J311" s="9">
+      <c r="J311" s="4">
         <f>VLOOKUP(D311,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4715.06525</v>
       </c>
@@ -14855,16 +14835,16 @@
       <c r="F312" s="5">
         <v>36.060798</v>
       </c>
-      <c r="G312" s="13">
+      <c r="G312" s="12">
         <v>4359446</v>
       </c>
       <c r="H312" s="7">
         <v>2886.74</v>
       </c>
-      <c r="I312" s="22">
+      <c r="I312" s="18">
         <v>4944.79561213726</v>
       </c>
-      <c r="J312" s="9">
+      <c r="J312" s="4">
         <f>VLOOKUP(D312,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>39637.8442</v>
       </c>
@@ -14888,16 +14868,16 @@
       <c r="F313" s="5">
         <v>39.733416</v>
       </c>
-      <c r="G313" s="15">
+      <c r="G313" s="13">
         <v>1055706</v>
       </c>
-      <c r="H313" s="12">
+      <c r="H313" s="11">
         <v>657.7</v>
       </c>
-      <c r="I313" s="22">
+      <c r="I313" s="18">
         <v>4327.72619986375</v>
       </c>
-      <c r="J313" s="9">
+      <c r="J313" s="4">
         <f>VLOOKUP(D313,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13151.16625</v>
       </c>
@@ -14921,16 +14901,16 @@
       <c r="F314" s="5">
         <v>36.545123</v>
       </c>
-      <c r="G314" s="17">
+      <c r="G314" s="13">
         <v>1512110</v>
       </c>
-      <c r="H314" s="12">
+      <c r="H314" s="11">
         <v>497.27</v>
       </c>
-      <c r="I314" s="22">
+      <c r="I314" s="18">
         <v>4774.64719136248</v>
       </c>
-      <c r="J314" s="9">
+      <c r="J314" s="4">
         <f>VLOOKUP(D314,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6060.26865</v>
       </c>
@@ -14954,16 +14934,16 @@
       <c r="F315" s="5">
         <v>39.77325</v>
       </c>
-      <c r="G315" s="15">
+      <c r="G315" s="13">
         <v>312663</v>
       </c>
-      <c r="H315" s="12">
+      <c r="H315" s="11">
         <v>281.6</v>
       </c>
-      <c r="I315" s="22">
+      <c r="I315" s="18">
         <v>3103.65135866477</v>
       </c>
-      <c r="J315" s="9">
+      <c r="J315" s="4">
         <f>VLOOKUP(D315,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5608.218</v>
       </c>
@@ -14987,16 +14967,16 @@
       <c r="F316" s="5">
         <v>35.542417</v>
       </c>
-      <c r="G316" s="15">
+      <c r="G316" s="13">
         <v>1848607</v>
       </c>
       <c r="H316" s="7">
         <v>476.16</v>
       </c>
-      <c r="I316" s="22">
+      <c r="I316" s="18">
         <v>7317.41991401474</v>
       </c>
-      <c r="J316" s="9">
+      <c r="J316" s="4">
         <f>VLOOKUP(D316,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5912.89685</v>
       </c>
@@ -15020,16 +15000,16 @@
       <c r="F317" s="5">
         <v>33.370174</v>
       </c>
-      <c r="G317" s="15">
+      <c r="G317" s="13">
         <v>2407272</v>
       </c>
-      <c r="H317" s="12">
+      <c r="H317" s="11">
         <v>451.8</v>
       </c>
-      <c r="I317" s="22">
+      <c r="I317" s="18">
         <v>8157.90062160506</v>
       </c>
-      <c r="J317" s="9">
+      <c r="J317" s="4">
         <f>VLOOKUP(D317,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4707.16375</v>
       </c>
@@ -15053,16 +15033,16 @@
       <c r="F318" s="5">
         <v>38.924766</v>
       </c>
-      <c r="G318" s="15">
+      <c r="G318" s="13">
         <v>1131016</v>
       </c>
-      <c r="H318" s="12">
+      <c r="H318" s="11">
         <v>467.05</v>
       </c>
-      <c r="I318" s="22">
+      <c r="I318" s="18">
         <v>4192.92073652298</v>
       </c>
-      <c r="J318" s="9">
+      <c r="J318" s="4">
         <f>VLOOKUP(D318,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6933.60295</v>
       </c>
@@ -15086,16 +15066,16 @@
       <c r="F319" s="5">
         <v>35.601792</v>
       </c>
-      <c r="G319" s="15">
+      <c r="G319" s="13">
         <v>2109750</v>
       </c>
-      <c r="H319" s="12">
+      <c r="H319" s="11">
         <v>331.3</v>
       </c>
-      <c r="I319" s="22">
+      <c r="I319" s="18">
         <v>5781.08351404561</v>
       </c>
-      <c r="J319" s="9">
+      <c r="J319" s="4">
         <f>VLOOKUP(D319,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2789.65575</v>
       </c>
@@ -15119,16 +15099,16 @@
       <c r="F320" s="5">
         <v>35.607947</v>
       </c>
-      <c r="G320" s="15">
+      <c r="G320" s="13">
         <v>2524097</v>
       </c>
-      <c r="H320" s="12">
+      <c r="H320" s="11">
         <v>441.36</v>
       </c>
-      <c r="I320" s="22">
+      <c r="I320" s="18">
         <v>6586.02405108378</v>
       </c>
-      <c r="J320" s="9">
+      <c r="J320" s="4">
         <f>VLOOKUP(D320,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8723.2743</v>
       </c>
@@ -15152,16 +15132,16 @@
       <c r="F321" s="5">
         <v>34.581514</v>
       </c>
-      <c r="G321" s="15">
+      <c r="G321" s="13">
         <v>2984659</v>
       </c>
-      <c r="H321" s="12">
+      <c r="H321" s="11">
         <v>666.9</v>
       </c>
-      <c r="I321" s="22">
+      <c r="I321" s="18">
         <v>7346.76437496517</v>
       </c>
-      <c r="J321" s="9">
+      <c r="J321" s="4">
         <f>VLOOKUP(D321,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8433.1847</v>
       </c>
@@ -15185,16 +15165,16 @@
       <c r="F322" s="5">
         <v>35.709459</v>
       </c>
-      <c r="G322" s="15">
+      <c r="G322" s="13">
         <v>2179716</v>
       </c>
       <c r="H322" s="7">
         <v>754.73</v>
       </c>
-      <c r="I322" s="22">
+      <c r="I322" s="18">
         <v>6664.66774274248</v>
       </c>
-      <c r="J322" s="9">
+      <c r="J322" s="4">
         <f>VLOOKUP(D322,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19449.8014</v>
       </c>
@@ -15218,16 +15198,16 @@
       <c r="F323" s="5">
         <v>37.92898</v>
       </c>
-      <c r="G323" s="15">
+      <c r="G323" s="13">
         <v>1464955</v>
       </c>
-      <c r="H323" s="12">
+      <c r="H323" s="11">
         <v>526.41</v>
       </c>
-      <c r="I323" s="22">
+      <c r="I323" s="18">
         <v>4689.82837563233</v>
       </c>
-      <c r="J323" s="9">
+      <c r="J323" s="4">
         <f>VLOOKUP(D323,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6332.67675</v>
       </c>
@@ -15251,16 +15231,16 @@
       <c r="F324" s="5">
         <v>34.983266</v>
       </c>
-      <c r="G324" s="15">
+      <c r="G324" s="13">
         <v>691808</v>
       </c>
-      <c r="H324" s="12">
+      <c r="H324" s="11">
         <v>219.06</v>
       </c>
-      <c r="I324" s="22">
+      <c r="I324" s="18">
         <v>6994.64496139232</v>
       </c>
-      <c r="J324" s="9">
+      <c r="J324" s="4">
         <f>VLOOKUP(D324,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>2616.92085</v>
       </c>
@@ -15284,16 +15264,16 @@
       <c r="F325" s="5">
         <v>31.467673</v>
       </c>
-      <c r="G325" s="13">
+      <c r="G325" s="12">
         <v>4868243</v>
       </c>
-      <c r="H325" s="12">
+      <c r="H325" s="11">
         <v>3010.08</v>
       </c>
-      <c r="I325" s="22">
+      <c r="I325" s="18">
         <v>10003.5637711636</v>
       </c>
-      <c r="J325" s="9">
+      <c r="J325" s="4">
         <f>VLOOKUP(D325,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>28709.1261</v>
       </c>
@@ -15317,16 +15297,16 @@
       <c r="F326" s="5">
         <v>32.435774</v>
       </c>
-      <c r="G326" s="37" t="s">
+      <c r="G326" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="H326" s="12">
+      <c r="H326" s="11">
         <v>1008.01</v>
       </c>
-      <c r="I326" s="22">
+      <c r="I326" s="18">
         <v>10391.6391765509</v>
       </c>
-      <c r="J326" s="9">
+      <c r="J326" s="4">
         <f>VLOOKUP(D326,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>8146.75635</v>
       </c>
@@ -15350,16 +15330,16 @@
       <c r="F327" s="5">
         <v>30.572961</v>
       </c>
-      <c r="G327" s="14">
+      <c r="G327" s="12">
         <v>20937757</v>
       </c>
       <c r="H327" s="7">
         <v>17716.7</v>
       </c>
-      <c r="I327" s="22">
+      <c r="I327" s="18">
         <v>10768.4297779342</v>
       </c>
-      <c r="J327" s="9">
+      <c r="J327" s="4">
         <f>VLOOKUP(D327,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>236798.3672</v>
       </c>
@@ -15383,16 +15363,16 @@
       <c r="F328" s="5">
         <v>31.867853</v>
       </c>
-      <c r="G328" s="13">
+      <c r="G328" s="12">
         <v>2712894</v>
       </c>
       <c r="H328" s="7">
         <v>766.99</v>
       </c>
-      <c r="I328" s="22">
+      <c r="I328" s="18">
         <v>12603.8707955048</v>
       </c>
-      <c r="J328" s="9">
+      <c r="J328" s="4">
         <f>VLOOKUP(D328,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4733.81735</v>
       </c>
@@ -15416,16 +15396,16 @@
       <c r="F329" s="5">
         <v>30.837235</v>
       </c>
-      <c r="G329" s="13">
+      <c r="G329" s="12">
         <v>5607565</v>
       </c>
-      <c r="H329" s="16">
+      <c r="H329" s="14">
         <v>2401.1</v>
       </c>
-      <c r="I329" s="22">
+      <c r="I329" s="18">
         <v>11488.9442039557</v>
       </c>
-      <c r="J329" s="9">
+      <c r="J329" s="4">
         <f>VLOOKUP(D329,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>36144.0769</v>
       </c>
@@ -15449,16 +15429,16 @@
       <c r="F330" s="5">
         <v>31.209278</v>
       </c>
-      <c r="G330" s="38">
+      <c r="G330" s="32">
         <v>5385422</v>
       </c>
       <c r="H330" s="7">
         <v>2117.8</v>
       </c>
-      <c r="I330" s="22">
+      <c r="I330" s="18">
         <v>11047.7581172541</v>
       </c>
-      <c r="J330" s="9">
+      <c r="J330" s="4">
         <f>VLOOKUP(D330,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17767.74485</v>
       </c>
@@ -15482,16 +15462,16 @@
       <c r="F331" s="5">
         <v>30.53268</v>
       </c>
-      <c r="G331" s="19">
+      <c r="G331" s="6">
         <v>2814196</v>
       </c>
-      <c r="H331" s="12">
+      <c r="H331" s="11">
         <v>1403.18</v>
       </c>
-      <c r="I331" s="22">
+      <c r="I331" s="18">
         <v>10591.9886550766</v>
       </c>
-      <c r="J331" s="9">
+      <c r="J331" s="4">
         <f>VLOOKUP(D331,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17475.1611</v>
       </c>
@@ -15515,16 +15495,16 @@
       <c r="F332" s="5">
         <v>31.127449</v>
       </c>
-      <c r="G332" s="13">
+      <c r="G332" s="12">
         <v>3456161</v>
       </c>
-      <c r="H332" s="12">
+      <c r="H332" s="11">
         <v>2404.1</v>
       </c>
-      <c r="I332" s="22">
+      <c r="I332" s="18">
         <v>10252.1520130425</v>
       </c>
-      <c r="J332" s="9">
+      <c r="J332" s="4">
         <f>VLOOKUP(D332,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>27568.2576</v>
       </c>
@@ -15551,13 +15531,13 @@
       <c r="G333" s="6">
         <v>3254883</v>
       </c>
-      <c r="H333" s="12">
+      <c r="H333" s="11">
         <v>1301.6</v>
       </c>
-      <c r="I333" s="22">
+      <c r="I333" s="18">
         <v>10982.8698956508</v>
       </c>
-      <c r="J333" s="9">
+      <c r="J333" s="4">
         <f>VLOOKUP(D333,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14712.99535</v>
       </c>
@@ -15584,13 +15564,13 @@
       <c r="G334" s="6">
         <v>2308631</v>
       </c>
-      <c r="H334" s="12">
+      <c r="H334" s="11">
         <v>807.5</v>
       </c>
-      <c r="I334" s="22">
+      <c r="I334" s="18">
         <v>10618.7069290296</v>
       </c>
-      <c r="J334" s="9">
+      <c r="J334" s="4">
         <f>VLOOKUP(D334,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>9921.46725</v>
       </c>
@@ -15614,16 +15594,16 @@
       <c r="F335" s="5">
         <v>29.58021</v>
       </c>
-      <c r="G335" s="13">
+      <c r="G335" s="12">
         <v>3140678</v>
       </c>
       <c r="H335" s="7">
         <v>1465.88</v>
       </c>
-      <c r="I335" s="22">
+      <c r="I335" s="18">
         <v>10417.9869652875</v>
       </c>
-      <c r="J335" s="9">
+      <c r="J335" s="4">
         <f>VLOOKUP(D335,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>12421.81775</v>
       </c>
@@ -15650,13 +15630,13 @@
       <c r="G336" s="6">
         <v>4858359</v>
       </c>
-      <c r="H336" s="12">
+      <c r="H336" s="11">
         <v>1733.15</v>
       </c>
-      <c r="I336" s="22">
+      <c r="I336" s="18">
         <v>9388.80587247633</v>
       </c>
-      <c r="J336" s="9">
+      <c r="J336" s="4">
         <f>VLOOKUP(D336,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13624.95965</v>
       </c>
@@ -15680,16 +15660,16 @@
       <c r="F337" s="5">
         <v>26.582417</v>
       </c>
-      <c r="G337" s="37">
+      <c r="G337" s="12">
         <v>1212203</v>
       </c>
-      <c r="H337" s="12">
+      <c r="H337" s="11">
         <v>1040.82</v>
       </c>
-      <c r="I337" s="22">
+      <c r="I337" s="18">
         <v>8034.20676583431</v>
       </c>
-      <c r="J337" s="9">
+      <c r="J337" s="4">
         <f>VLOOKUP(D337,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7731.51385</v>
       </c>
@@ -15713,16 +15693,16 @@
       <c r="F338" s="5">
         <v>29.552275</v>
       </c>
-      <c r="G338" s="13">
+      <c r="G338" s="12">
         <v>3160168</v>
       </c>
-      <c r="H338" s="12">
+      <c r="H338" s="11">
         <v>2003.43</v>
       </c>
-      <c r="I338" s="22">
+      <c r="I338" s="18">
         <v>13531.8376889346</v>
       </c>
-      <c r="J338" s="9">
+      <c r="J338" s="4">
         <f>VLOOKUP(D338,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>17585.1859</v>
       </c>
@@ -15746,16 +15726,16 @@
       <c r="F339" s="5">
         <v>28.87098</v>
       </c>
-      <c r="G339" s="37" t="s">
+      <c r="G339" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="H339" s="12">
+      <c r="H339" s="11">
         <v>2157.2</v>
       </c>
-      <c r="I339" s="22">
+      <c r="I339" s="18">
         <v>10884.1101631718</v>
       </c>
-      <c r="J339" s="9">
+      <c r="J339" s="4">
         <f>VLOOKUP(D339,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13897.7336</v>
       </c>
@@ -15782,13 +15762,13 @@
       <c r="G340" s="6">
         <v>2955219</v>
       </c>
-      <c r="H340" s="12">
+      <c r="H340" s="11">
         <v>1423.74</v>
       </c>
-      <c r="I340" s="22">
+      <c r="I340" s="18">
         <v>12300.5832942248</v>
       </c>
-      <c r="J340" s="9">
+      <c r="J340" s="4">
         <f>VLOOKUP(D340,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>10710.10215</v>
       </c>
@@ -15812,16 +15792,16 @@
       <c r="F341" s="5">
         <v>29.33924</v>
       </c>
-      <c r="G341" s="37" t="s">
+      <c r="G341" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="H341" s="12">
+      <c r="H341" s="11">
         <v>1458.44</v>
       </c>
-      <c r="I341" s="22">
+      <c r="I341" s="18">
         <v>10797.870031406</v>
       </c>
-      <c r="J341" s="9">
+      <c r="J341" s="4">
         <f>VLOOKUP(D341,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6255.3667</v>
       </c>
@@ -15848,13 +15828,13 @@
       <c r="G342" s="6">
         <v>4588804</v>
       </c>
-      <c r="H342" s="12">
+      <c r="H342" s="11">
         <v>2802.1</v>
       </c>
-      <c r="I342" s="22">
+      <c r="I342" s="18">
         <v>10702.8842467339</v>
       </c>
-      <c r="J342" s="9">
+      <c r="J342" s="4">
         <f>VLOOKUP(D342,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13265.23365</v>
       </c>
@@ -15878,16 +15858,16 @@
       <c r="F343" s="5">
         <v>30.04952</v>
       </c>
-      <c r="G343" s="19">
+      <c r="G343" s="6">
         <v>1107431</v>
       </c>
-      <c r="H343" s="12">
+      <c r="H343" s="11">
         <v>410.61</v>
       </c>
-      <c r="I343" s="22">
+      <c r="I343" s="18">
         <v>8359.79150032433</v>
       </c>
-      <c r="J343" s="9">
+      <c r="J343" s="4">
         <f>VLOOKUP(D343,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6737.0836</v>
       </c>
@@ -15911,16 +15891,16 @@
       <c r="F344" s="5">
         <v>31.899427</v>
       </c>
-      <c r="G344" s="17">
+      <c r="G344" s="13">
         <v>822587</v>
       </c>
-      <c r="H344" s="12">
+      <c r="H344" s="11">
         <v>411.75</v>
       </c>
-      <c r="I344" s="22">
+      <c r="I344" s="18">
         <v>8954.87386110237</v>
       </c>
-      <c r="J344" s="9">
+      <c r="J344" s="4">
         <f>VLOOKUP(D344,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>4240.6845</v>
       </c>
@@ -15947,13 +15927,13 @@
       <c r="G345" s="6">
         <v>1434603</v>
       </c>
-      <c r="H345" s="12">
+      <c r="H345" s="11">
         <v>754.59</v>
       </c>
-      <c r="I345" s="22">
+      <c r="I345" s="18">
         <v>10849.8663348525</v>
       </c>
-      <c r="J345" s="9">
+      <c r="J345" s="4">
         <f>VLOOKUP(D345,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6499.83545</v>
       </c>
@@ -15980,13 +15960,13 @@
       <c r="G346" s="6">
         <v>13866000</v>
       </c>
-      <c r="H346" s="16">
+      <c r="H346" s="14">
         <v>14083.73</v>
       </c>
-      <c r="I346" s="22">
+      <c r="I346" s="18">
         <v>5538.06433790906</v>
       </c>
-      <c r="J346" s="28">
+      <c r="J346" s="23">
         <v>300041.4605</v>
       </c>
     </row>
@@ -16015,10 +15995,10 @@
       <c r="H347" s="7">
         <v>36102.6</v>
       </c>
-      <c r="I347" s="22">
+      <c r="I347" s="18">
         <v>4896.24315777069</v>
       </c>
-      <c r="J347" s="28">
+      <c r="J347" s="23">
         <v>324591.4769</v>
       </c>
     </row>
@@ -16041,16 +16021,16 @@
       <c r="F348" s="5">
         <v>25.831139</v>
       </c>
-      <c r="G348" s="13">
+      <c r="G348" s="12">
         <v>8970014</v>
       </c>
-      <c r="H348" s="12">
+      <c r="H348" s="11">
         <v>3645.2</v>
       </c>
-      <c r="I348" s="22">
+      <c r="I348" s="18">
         <v>16610.8128989145</v>
       </c>
-      <c r="J348" s="9">
+      <c r="J348" s="4">
         <f>VLOOKUP(D348,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>43232.88935</v>
       </c>
@@ -16074,16 +16054,16 @@
       <c r="F349" s="5">
         <v>27.658721</v>
       </c>
-      <c r="G349" s="11">
+      <c r="G349" s="10">
         <v>1804805</v>
       </c>
-      <c r="H349" s="12">
+      <c r="H349" s="11">
         <v>963.6</v>
       </c>
-      <c r="I349" s="22">
+      <c r="I349" s="18">
         <v>15803.0057599884</v>
       </c>
-      <c r="J349" s="9">
+      <c r="J349" s="4">
         <f>VLOOKUP(D349,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3884.60285</v>
       </c>
@@ -16107,16 +16087,16 @@
       <c r="F350" s="5">
         <v>29.2744</v>
       </c>
-      <c r="G350" s="13">
+      <c r="G350" s="12">
         <v>1618979</v>
       </c>
-      <c r="H350" s="12">
+      <c r="H350" s="11">
         <v>957.14</v>
       </c>
-      <c r="I350" s="22">
+      <c r="I350" s="18">
         <v>15477.9969412103</v>
       </c>
-      <c r="J350" s="9">
+      <c r="J350" s="4">
         <f>VLOOKUP(D350,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>10998.6237</v>
       </c>
@@ -16140,16 +16120,16 @@
       <c r="F351" s="5">
         <v>27.816245</v>
       </c>
-      <c r="G351" s="14">
+      <c r="G351" s="12">
         <v>5007702</v>
       </c>
-      <c r="H351" s="12">
+      <c r="H351" s="11">
         <v>2789.87</v>
       </c>
-      <c r="I351" s="22">
+      <c r="I351" s="18">
         <v>15788.4261083602</v>
       </c>
-      <c r="J351" s="9">
+      <c r="J351" s="4">
         <f>VLOOKUP(D351,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19842.76425</v>
       </c>
@@ -16173,16 +16153,16 @@
       <c r="F352" s="5">
         <v>27.091243</v>
       </c>
-      <c r="G352" s="14">
+      <c r="G352" s="12">
         <v>4469176</v>
       </c>
       <c r="H352" s="7">
         <v>2168.83</v>
       </c>
-      <c r="I352" s="22">
+      <c r="I352" s="18">
         <v>17029.403693769</v>
       </c>
-      <c r="J352" s="9">
+      <c r="J352" s="4">
         <f>VLOOKUP(D352,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13309.23785</v>
       </c>
@@ -16206,16 +16186,16 @@
       <c r="F353" s="5">
         <v>27.818553</v>
       </c>
-      <c r="G353" s="13">
+      <c r="G353" s="12">
         <v>1202499</v>
       </c>
-      <c r="H353" s="12">
+      <c r="H353" s="11">
         <v>1001.33</v>
       </c>
-      <c r="I353" s="22">
+      <c r="I353" s="18">
         <v>16484.0369186231</v>
       </c>
-      <c r="J353" s="9">
+      <c r="J353" s="4">
         <f>VLOOKUP(D353,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5896.9604</v>
       </c>
@@ -16239,16 +16219,16 @@
       <c r="F354" s="5">
         <v>28.45513</v>
       </c>
-      <c r="G354" s="13">
+      <c r="G354" s="12">
         <v>6491088</v>
       </c>
-      <c r="H354" s="12">
+      <c r="H354" s="11">
         <v>2624.3</v>
       </c>
-      <c r="I354" s="22">
+      <c r="I354" s="18">
         <v>17079.0682980693</v>
       </c>
-      <c r="J354" s="9">
+      <c r="J354" s="4">
         <f>VLOOKUP(D354,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19391.4462</v>
       </c>
@@ -16272,16 +16252,16 @@
       <c r="F355" s="5">
         <v>28.682976</v>
       </c>
-      <c r="G355" s="11">
+      <c r="G355" s="10">
         <v>6255007</v>
       </c>
-      <c r="H355" s="12">
+      <c r="H355" s="11">
         <v>5745.51</v>
       </c>
-      <c r="I355" s="22">
+      <c r="I355" s="18">
         <v>15430.7091098575</v>
       </c>
-      <c r="J355" s="9">
+      <c r="J355" s="4">
         <f>VLOOKUP(D355,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>64675.64255</v>
       </c>
@@ -16305,16 +16285,16 @@
       <c r="F356" s="5">
         <v>29.66116</v>
       </c>
-      <c r="G356" s="11">
+      <c r="G356" s="10">
         <v>4600276</v>
       </c>
-      <c r="H356" s="12">
+      <c r="H356" s="11">
         <v>3240.5</v>
       </c>
-      <c r="I356" s="22">
+      <c r="I356" s="18">
         <v>13486.4618413865</v>
       </c>
-      <c r="J356" s="9">
+      <c r="J356" s="4">
         <f>VLOOKUP(D356,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>24920.4441</v>
       </c>
@@ -16338,16 +16318,16 @@
       <c r="F357" s="5">
         <v>28.272092</v>
       </c>
-      <c r="G357" s="14" t="s">
+      <c r="G357" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="H357" s="12">
+      <c r="H357" s="11">
         <v>982.66</v>
       </c>
-      <c r="I357" s="22">
+      <c r="I357" s="18">
         <v>17329.0334097123</v>
       </c>
-      <c r="J357" s="9">
+      <c r="J357" s="4">
         <f>VLOOKUP(D357,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>5734.14995</v>
       </c>
@@ -16371,16 +16351,16 @@
       <c r="F358" s="5">
         <v>27.948979</v>
       </c>
-      <c r="G358" s="14">
+      <c r="G358" s="12">
         <v>3614866</v>
       </c>
-      <c r="H358" s="12">
+      <c r="H358" s="11">
         <v>1572.51</v>
       </c>
-      <c r="I358" s="22">
+      <c r="I358" s="18">
         <v>17605.7847307133</v>
       </c>
-      <c r="J358" s="9">
+      <c r="J358" s="4">
         <f>VLOOKUP(D358,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>14735.14705</v>
       </c>
@@ -16404,16 +16384,16 @@
       <c r="F359" s="5">
         <v>43.838132</v>
       </c>
-      <c r="G359" s="13">
+      <c r="G359" s="12">
         <v>3623713</v>
       </c>
-      <c r="H359" s="39">
+      <c r="H359" s="33">
         <v>1452.6</v>
       </c>
-      <c r="I359" s="22">
+      <c r="I359" s="18">
         <v>8371.53988879237</v>
       </c>
-      <c r="J359" s="9">
+      <c r="J359" s="4">
         <f>VLOOKUP(D359,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>22669.39355</v>
       </c>
@@ -16437,16 +16417,16 @@
       <c r="F360" s="5">
         <v>45.620131</v>
       </c>
-      <c r="G360" s="13">
+      <c r="G360" s="12">
         <v>1551378</v>
       </c>
-      <c r="H360" s="12">
+      <c r="H360" s="11">
         <v>510.18</v>
       </c>
-      <c r="I360" s="22">
+      <c r="I360" s="18">
         <v>5299.41592464749</v>
       </c>
-      <c r="J360" s="9">
+      <c r="J360" s="4">
         <f>VLOOKUP(D360,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7433.8818</v>
       </c>
@@ -16470,16 +16450,16 @@
       <c r="F361" s="5">
         <v>45.14191</v>
       </c>
-      <c r="G361" s="11">
+      <c r="G361" s="10">
         <v>2252994</v>
       </c>
-      <c r="H361" s="12">
+      <c r="H361" s="11">
         <v>752.88</v>
       </c>
-      <c r="I361" s="22">
+      <c r="I361" s="18">
         <v>6325.67930828426</v>
       </c>
-      <c r="J361" s="9">
+      <c r="J361" s="4">
         <f>VLOOKUP(D361,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>13406.79155</v>
       </c>
@@ -16503,16 +16483,16 @@
       <c r="F362" s="5">
         <v>42.887961</v>
       </c>
-      <c r="G362" s="13">
+      <c r="G362" s="12">
         <v>996903</v>
       </c>
-      <c r="H362" s="12">
+      <c r="H362" s="11">
         <v>429.9</v>
       </c>
-      <c r="I362" s="22">
+      <c r="I362" s="18">
         <v>8428.59234758875</v>
       </c>
-      <c r="J362" s="9">
+      <c r="J362" s="4">
         <f>VLOOKUP(D362,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6733.906</v>
       </c>
@@ -16536,16 +16516,16 @@
       <c r="F363" s="5">
         <v>43.816996</v>
       </c>
-      <c r="G363" s="11">
+      <c r="G363" s="10">
         <v>9066906</v>
       </c>
-      <c r="H363" s="12">
+      <c r="H363" s="11">
         <v>6638.03</v>
       </c>
-      <c r="I363" s="22">
+      <c r="I363" s="18">
         <v>7561.33635818776</v>
       </c>
-      <c r="J363" s="9">
+      <c r="J363" s="4">
         <f>VLOOKUP(D363,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>109873.8497</v>
       </c>
@@ -16569,16 +16549,16 @@
       <c r="F364" s="5">
         <v>41.728312</v>
       </c>
-      <c r="G364" s="29">
+      <c r="G364" s="24">
         <v>1302778</v>
       </c>
-      <c r="H364" s="39">
+      <c r="H364" s="33">
         <v>531.7</v>
       </c>
-      <c r="I364" s="22">
+      <c r="I364" s="18">
         <v>7262.45236106085</v>
       </c>
-      <c r="J364" s="9">
+      <c r="J364" s="4">
         <f>VLOOKUP(D364,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11784.2498</v>
       </c>
@@ -16602,16 +16582,16 @@
       <c r="F365" s="5">
         <v>43.166764</v>
       </c>
-      <c r="G365" s="11">
+      <c r="G365" s="10">
         <v>1814733</v>
       </c>
-      <c r="H365" s="12">
+      <c r="H365" s="11">
         <v>526.6</v>
       </c>
-      <c r="I365" s="22">
+      <c r="I365" s="18">
         <v>7886.34591921927</v>
       </c>
-      <c r="J365" s="9">
+      <c r="J365" s="4">
         <f>VLOOKUP(D365,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16122.40795</v>
       </c>
@@ -16635,16 +16615,16 @@
       <c r="F366" s="5">
         <v>42.909426</v>
       </c>
-      <c r="G366" s="15">
+      <c r="G366" s="13">
         <v>1941700</v>
       </c>
-      <c r="H366" s="12">
+      <c r="H366" s="11">
         <v>726.86</v>
       </c>
-      <c r="I366" s="22">
+      <c r="I366" s="18">
         <v>6829.94134993772</v>
       </c>
-      <c r="J366" s="9">
+      <c r="J366" s="4">
         <f>VLOOKUP(D366,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15679.4573</v>
       </c>
@@ -16668,16 +16648,16 @@
       <c r="F367" s="5">
         <v>41.944132</v>
       </c>
-      <c r="G367" s="11">
+      <c r="G367" s="10">
         <v>951866</v>
       </c>
-      <c r="H367" s="12">
+      <c r="H367" s="11">
         <v>509.42</v>
       </c>
-      <c r="I367" s="22">
+      <c r="I367" s="18">
         <v>6869.30188691791</v>
       </c>
-      <c r="J367" s="9">
+      <c r="J367" s="4">
         <f>VLOOKUP(D367,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>3221.68455</v>
       </c>
@@ -16701,16 +16681,16 @@
       <c r="F368" s="5">
         <v>37.857094</v>
       </c>
-      <c r="G368" s="11">
+      <c r="G368" s="10">
         <v>1318505</v>
       </c>
-      <c r="H368" s="12">
+      <c r="H368" s="11">
         <v>742.2</v>
       </c>
-      <c r="I368" s="22">
+      <c r="I368" s="18">
         <v>4659.48312456859</v>
       </c>
-      <c r="J368" s="9">
+      <c r="J368" s="4">
         <f>VLOOKUP(D368,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7948.23675</v>
       </c>
@@ -16734,16 +16714,16 @@
       <c r="F369" s="5">
         <v>37.870451</v>
       </c>
-      <c r="G369" s="14">
+      <c r="G369" s="12">
         <v>5304061</v>
       </c>
       <c r="H369" s="7">
         <v>4153.25</v>
       </c>
-      <c r="I369" s="22">
+      <c r="I369" s="18">
         <v>4628.68357814892</v>
       </c>
-      <c r="J369" s="9">
+      <c r="J369" s="4">
         <f>VLOOKUP(D369,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>90975.96375</v>
       </c>
@@ -16767,16 +16747,16 @@
       <c r="F370" s="5">
         <v>37.518996</v>
       </c>
-      <c r="G370" s="13">
+      <c r="G370" s="12">
         <v>3398431</v>
       </c>
-      <c r="H370" s="12">
+      <c r="H370" s="11">
         <v>1538.04</v>
       </c>
-      <c r="I370" s="22">
+      <c r="I370" s="18">
         <v>5587.37016056799</v>
       </c>
-      <c r="J370" s="9">
+      <c r="J370" s="4">
         <f>VLOOKUP(D370,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18429.5869</v>
       </c>
@@ -16800,16 +16780,16 @@
       <c r="F371" s="5">
         <v>37.688006</v>
       </c>
-      <c r="G371" s="11">
+      <c r="G371" s="10">
         <v>3379498</v>
       </c>
-      <c r="H371" s="12">
+      <c r="H371" s="11">
         <v>1468.8</v>
       </c>
-      <c r="I371" s="22">
+      <c r="I371" s="18">
         <v>4915.71038896692</v>
       </c>
-      <c r="J371" s="9">
+      <c r="J371" s="4">
         <f>VLOOKUP(D371,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>29571.2386</v>
       </c>
@@ -16833,16 +16813,16 @@
       <c r="F372" s="5">
         <v>36.195142</v>
       </c>
-      <c r="G372" s="13">
+      <c r="G372" s="12">
         <v>3180884</v>
       </c>
-      <c r="H372" s="12">
+      <c r="H372" s="11">
         <v>1711.6</v>
       </c>
-      <c r="I372" s="22">
+      <c r="I372" s="18">
         <v>5675.78428269797</v>
       </c>
-      <c r="J372" s="9">
+      <c r="J372" s="4">
         <f>VLOOKUP(D372,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>28866.4577</v>
       </c>
@@ -16866,16 +16846,16 @@
       <c r="F373" s="5">
         <v>35.491315</v>
       </c>
-      <c r="G373" s="11">
+      <c r="G373" s="10">
         <v>2194545</v>
       </c>
-      <c r="H373" s="12">
+      <c r="H373" s="11">
         <v>1425.7</v>
       </c>
-      <c r="I373" s="22">
+      <c r="I373" s="18">
         <v>6048.91422582664</v>
       </c>
-      <c r="J373" s="9">
+      <c r="J373" s="4">
         <f>VLOOKUP(D373,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>21695.8188</v>
       </c>
@@ -16899,16 +16879,16 @@
       <c r="F374" s="5">
         <v>35.02667</v>
       </c>
-      <c r="G374" s="11">
+      <c r="G374" s="10">
         <v>4774508</v>
       </c>
-      <c r="H374" s="12">
+      <c r="H374" s="11">
         <v>1643.6</v>
       </c>
-      <c r="I374" s="22">
+      <c r="I374" s="18">
         <v>6181.70030015306</v>
       </c>
-      <c r="J374" s="9">
+      <c r="J374" s="4">
         <f>VLOOKUP(D374,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18962.9042</v>
       </c>
@@ -16932,16 +16912,16 @@
       <c r="F375" s="5">
         <v>36.088581</v>
       </c>
-      <c r="G375" s="13">
+      <c r="G375" s="12">
         <v>3976481</v>
       </c>
-      <c r="H375" s="12">
+      <c r="H375" s="11">
         <v>1505.2</v>
       </c>
-      <c r="I375" s="22">
+      <c r="I375" s="18">
         <v>5485.98928109038</v>
       </c>
-      <c r="J375" s="9">
+      <c r="J375" s="4">
         <f>VLOOKUP(D375,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19261.5659</v>
       </c>
@@ -16965,16 +16945,16 @@
       <c r="F376" s="5">
         <v>38.415958</v>
       </c>
-      <c r="G376" s="13">
+      <c r="G376" s="12">
         <v>2689668</v>
       </c>
-      <c r="H376" s="12">
+      <c r="H376" s="11">
         <v>1034.6</v>
       </c>
-      <c r="I376" s="22">
+      <c r="I376" s="18">
         <v>5249.61878393278</v>
       </c>
-      <c r="J376" s="9">
+      <c r="J376" s="4">
         <f>VLOOKUP(D376,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16282.86005</v>
       </c>
@@ -16998,16 +16978,16 @@
       <c r="F377" s="5">
         <v>39.331734</v>
       </c>
-      <c r="G377" s="11">
+      <c r="G377" s="10">
         <v>1593444</v>
       </c>
-      <c r="H377" s="12">
+      <c r="H377" s="11">
         <v>1100.5</v>
       </c>
-      <c r="I377" s="22">
+      <c r="I377" s="18">
         <v>4941.62844319156</v>
       </c>
-      <c r="J377" s="9">
+      <c r="J377" s="4">
         <f>VLOOKUP(D377,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>19545.59115</v>
       </c>
@@ -17031,16 +17011,16 @@
       <c r="F378" s="5">
         <v>40.09711</v>
       </c>
-      <c r="G378" s="13">
+      <c r="G378" s="12">
         <v>3105591</v>
       </c>
-      <c r="H378" s="12">
+      <c r="H378" s="11">
         <v>1369.9</v>
       </c>
-      <c r="I378" s="22">
+      <c r="I378" s="18">
         <v>5139.42918435455</v>
       </c>
-      <c r="J378" s="9">
+      <c r="J378" s="4">
         <f>VLOOKUP(D378,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>36682.00865</v>
       </c>
@@ -17064,16 +17044,16 @@
       <c r="F379" s="5">
         <v>25.817555</v>
       </c>
-      <c r="G379" s="15">
+      <c r="G379" s="13">
         <v>552694</v>
       </c>
-      <c r="H379" s="12">
+      <c r="H379" s="11">
         <v>210.73</v>
       </c>
-      <c r="I379" s="22">
+      <c r="I379" s="18">
         <v>9426.63954903914</v>
       </c>
-      <c r="J379" s="28">
+      <c r="J379" s="23">
         <v>1390.56345</v>
       </c>
     </row>
@@ -17099,13 +17079,13 @@
       <c r="G380" s="6">
         <v>387511</v>
       </c>
-      <c r="H380" s="16">
+      <c r="H380" s="14">
         <v>267</v>
       </c>
-      <c r="I380" s="22">
+      <c r="I380" s="18">
         <v>7867.37185168158</v>
       </c>
-      <c r="J380" s="28">
+      <c r="J380" s="23">
         <v>2108.5491</v>
       </c>
     </row>
@@ -17128,16 +17108,16 @@
       <c r="F381" s="5">
         <v>26.855165</v>
       </c>
-      <c r="G381" s="15">
+      <c r="G381" s="13">
         <v>1253878</v>
       </c>
       <c r="H381" s="7">
         <v>512.75</v>
       </c>
-      <c r="I381" s="22">
+      <c r="I381" s="18">
         <v>9275.90358632063</v>
       </c>
-      <c r="J381" s="9">
+      <c r="J381" s="4">
         <f>VLOOKUP(D381,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>10977.7467</v>
       </c>
@@ -17161,16 +17141,16 @@
       <c r="F382" s="5">
         <v>27.338185</v>
       </c>
-      <c r="G382" s="15">
+      <c r="G382" s="13">
         <v>5092611</v>
       </c>
-      <c r="H382" s="12">
+      <c r="H382" s="11">
         <v>1288.74</v>
       </c>
-      <c r="I382" s="22">
+      <c r="I382" s="18">
         <v>9541.11754227933</v>
       </c>
-      <c r="J382" s="9">
+      <c r="J382" s="4">
         <f>VLOOKUP(D382,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16842.106</v>
       </c>
@@ -17194,16 +17174,16 @@
       <c r="F383" s="5">
         <v>23.363129</v>
       </c>
-      <c r="G383" s="15">
+      <c r="G383" s="13">
         <v>4478422</v>
       </c>
-      <c r="H383" s="16">
+      <c r="H383" s="14">
         <v>2417.47</v>
       </c>
-      <c r="I383" s="22">
+      <c r="I383" s="18">
         <v>9892.7102565893</v>
       </c>
-      <c r="J383" s="28">
+      <c r="J383" s="23">
         <v>21587.71915</v>
       </c>
     </row>
@@ -17226,16 +17206,16 @@
       <c r="F384" s="5">
         <v>24.346786</v>
       </c>
-      <c r="G384" s="13">
+      <c r="G384" s="12">
         <v>2249502</v>
       </c>
-      <c r="H384" s="12">
+      <c r="H384" s="11">
         <v>2058.1</v>
       </c>
-      <c r="I384" s="22">
+      <c r="I384" s="18">
         <v>7908.71657661192</v>
       </c>
-      <c r="J384" s="9">
+      <c r="J384" s="4">
         <f>VLOOKUP(D384,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>15516.2505</v>
       </c>
@@ -17259,16 +17239,16 @@
       <c r="F385" s="5">
         <v>25.490866</v>
       </c>
-      <c r="G385" s="14">
+      <c r="G385" s="12">
         <v>5765775</v>
       </c>
-      <c r="H385" s="12">
+      <c r="H385" s="11">
         <v>2959.35</v>
       </c>
-      <c r="I385" s="22">
+      <c r="I385" s="18">
         <v>10289.8755133658</v>
       </c>
-      <c r="J385" s="9">
+      <c r="J385" s="4">
         <f>VLOOKUP(D385,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>36921.72605</v>
       </c>
@@ -17292,16 +17272,16 @@
       <c r="F386" s="5">
         <v>22.009037</v>
       </c>
-      <c r="G386" s="15">
+      <c r="G386" s="13">
         <v>1301407</v>
       </c>
       <c r="H386" s="7">
         <v>604.18</v>
       </c>
-      <c r="I386" s="22">
+      <c r="I386" s="18">
         <v>9446.59938244241</v>
       </c>
-      <c r="J386" s="28">
+      <c r="J386" s="23">
         <v>6212.90815</v>
       </c>
     </row>
@@ -17324,16 +17304,16 @@
       <c r="F387" s="5">
         <v>25.606548</v>
       </c>
-      <c r="G387" s="15">
+      <c r="G387" s="13">
         <v>3337559</v>
       </c>
-      <c r="H387" s="12">
+      <c r="H387" s="11">
         <v>1484</v>
       </c>
-      <c r="I387" s="22">
+      <c r="I387" s="18">
         <v>8934.40353842687</v>
       </c>
-      <c r="J387" s="9">
+      <c r="J387" s="4">
         <f>VLOOKUP(D387,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>18230.78845</v>
       </c>
@@ -17357,16 +17337,16 @@
       <c r="F388" s="5">
         <v>25.112018</v>
       </c>
-      <c r="G388" s="13">
+      <c r="G388" s="12">
         <v>2431211</v>
       </c>
-      <c r="H388" s="12">
+      <c r="H388" s="11">
         <v>1052.6</v>
       </c>
-      <c r="I388" s="22">
+      <c r="I388" s="18">
         <v>9950.08137858056</v>
       </c>
-      <c r="J388" s="9">
+      <c r="J388" s="4">
         <f>VLOOKUP(D388,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>11649.52225</v>
       </c>
@@ -17390,16 +17370,16 @@
       <c r="F389" s="5">
         <v>23.400983</v>
       </c>
-      <c r="G389" s="15">
+      <c r="G389" s="13">
         <v>3503218</v>
       </c>
-      <c r="H389" s="16">
+      <c r="H389" s="14">
         <v>1185.12</v>
       </c>
-      <c r="I389" s="22">
+      <c r="I389" s="18">
         <v>11308.528759866</v>
       </c>
-      <c r="J389" s="28">
+      <c r="J389" s="23">
         <v>10796.727</v>
       </c>
     </row>
@@ -17422,16 +17402,16 @@
       <c r="F390" s="5">
         <v>25.045678</v>
       </c>
-      <c r="G390" s="15">
+      <c r="G390" s="13">
         <v>2416747</v>
       </c>
-      <c r="H390" s="12">
+      <c r="H390" s="11">
         <v>1372.16</v>
       </c>
-      <c r="I390" s="22">
+      <c r="I390" s="18">
         <v>9083.29862088638</v>
       </c>
-      <c r="J390" s="9">
+      <c r="J390" s="4">
         <f>VLOOKUP(D390,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>16717.90095</v>
       </c>
@@ -17455,16 +17435,16 @@
       <c r="F391" s="5">
         <v>22.825229</v>
       </c>
-      <c r="G391" s="15">
+      <c r="G391" s="13">
         <v>2404954</v>
       </c>
-      <c r="H391" s="12">
+      <c r="H391" s="11">
         <v>945.42</v>
       </c>
-      <c r="I391" s="22">
+      <c r="I391" s="18">
         <v>9545.58001316308</v>
       </c>
-      <c r="J391" s="9">
+      <c r="J391" s="4">
         <f>VLOOKUP(D391,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>7556.0967</v>
       </c>
@@ -17488,16 +17468,16 @@
       <c r="F392" s="5">
         <v>23.884175</v>
       </c>
-      <c r="G392" s="15">
+      <c r="G392" s="13">
         <v>2257991</v>
       </c>
-      <c r="H392" s="12">
+      <c r="H392" s="11">
         <v>821.32</v>
       </c>
-      <c r="I392" s="22">
+      <c r="I392" s="18">
         <v>9297.35716615926</v>
       </c>
-      <c r="J392" s="9">
+      <c r="J392" s="4">
         <f>VLOOKUP(D392,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>6133.20245</v>
       </c>
@@ -17521,16 +17501,16 @@
       <c r="F393" s="5">
         <v>24.88149</v>
       </c>
-      <c r="G393" s="13">
+      <c r="G393" s="12">
         <v>8460088</v>
       </c>
-      <c r="H393" s="12">
+      <c r="H393" s="11">
         <v>6733.79</v>
       </c>
-      <c r="I393" s="22">
+      <c r="I393" s="18">
         <v>9679.76352197657</v>
       </c>
-      <c r="J393" s="9">
+      <c r="J393" s="4">
         <f>VLOOKUP(D393,Sheet1!C:D,COLUMN(Sheet1!D:D)-COLUMN(Sheet1!C:D)+1,0)</f>
         <v>106575.8164</v>
       </c>
@@ -17554,16 +17534,16 @@
       <c r="F394" s="5">
         <v>24.433146</v>
       </c>
-      <c r="G394" s="17">
+      <c r="G394" s="13">
         <v>1315709</v>
       </c>
-      <c r="H394" s="16">
+      <c r="H394" s="14">
         <v>575.54</v>
       </c>
-      <c r="I394" s="22">
+      <c r="I394" s="18">
         <v>10110.2744872882</v>
       </c>
-      <c r="J394" s="28">
+      <c r="J394" s="23">
         <v>7962.45625</v>
       </c>
     </row>
@@ -17572,7 +17552,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D146 D148:D156 D158:D346 D349:D395 A1:B395" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B395 D349:D395 D158:D346 D148:D156 D1:D146" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
